--- a/Logged Data/Data Log 06.10.15.xlsx
+++ b/Logged Data/Data Log 06.10.15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\researchProject\Logged Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -216,6 +216,15 @@
       <t>(y-y^)2</t>
     </r>
   </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
 </sst>
 </file>
 
@@ -314,6 +323,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,9 +333,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1750,8 +1759,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144520528"/>
-        <c:axId val="144521088"/>
+        <c:axId val="302352848"/>
+        <c:axId val="302353408"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3072,11 +3081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219067632"/>
-        <c:axId val="63474784"/>
+        <c:axId val="302354528"/>
+        <c:axId val="302353968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144520528"/>
+        <c:axId val="302352848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3188,12 +3197,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144521088"/>
+        <c:crossAx val="302353408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144521088"/>
+        <c:axId val="302353408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,12 +3314,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144520528"/>
+        <c:crossAx val="302352848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63474784"/>
+        <c:axId val="302353968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="560"/>
@@ -3355,12 +3364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219067632"/>
+        <c:crossAx val="302354528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219067632"/>
+        <c:axId val="302354528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,7 +3379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63474784"/>
+        <c:crossAx val="302353968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3467,7 +3476,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4761,8 +4769,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219070432"/>
-        <c:axId val="219070992"/>
+        <c:axId val="302215264"/>
+        <c:axId val="302216384"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6017,11 +6025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219072112"/>
-        <c:axId val="219071552"/>
+        <c:axId val="302216944"/>
+        <c:axId val="302215824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219070432"/>
+        <c:axId val="302215264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -6068,7 +6076,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6135,12 +6142,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219070992"/>
+        <c:crossAx val="302216384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219070992"/>
+        <c:axId val="302216384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -6187,7 +6194,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6254,12 +6260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219070432"/>
+        <c:crossAx val="302215264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219071552"/>
+        <c:axId val="302215824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -6304,12 +6310,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219072112"/>
+        <c:crossAx val="302216944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219072112"/>
+        <c:axId val="302216944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6319,7 +6325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219071552"/>
+        <c:crossAx val="302215824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6416,7 +6422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8760,8 +8765,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219985104"/>
-        <c:axId val="219985664"/>
+        <c:axId val="305212176"/>
+        <c:axId val="305212736"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -11066,11 +11071,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219986784"/>
-        <c:axId val="219986224"/>
+        <c:axId val="305213856"/>
+        <c:axId val="305213296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219985104"/>
+        <c:axId val="305212176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -11117,7 +11122,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11184,12 +11188,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219985664"/>
+        <c:crossAx val="305212736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219985664"/>
+        <c:axId val="305212736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -11237,7 +11241,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11304,12 +11307,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219985104"/>
+        <c:crossAx val="305212176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219986224"/>
+        <c:axId val="305213296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -11354,12 +11357,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219986784"/>
+        <c:crossAx val="305213856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219986784"/>
+        <c:axId val="305213856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11369,7 +11372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219986224"/>
+        <c:crossAx val="305213296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11463,7 +11466,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13777,8 +13779,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219990144"/>
-        <c:axId val="219990704"/>
+        <c:axId val="305217216"/>
+        <c:axId val="305217776"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -16053,11 +16055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219991824"/>
-        <c:axId val="219991264"/>
+        <c:axId val="305218896"/>
+        <c:axId val="305218336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219990144"/>
+        <c:axId val="305217216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -16104,7 +16106,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16171,12 +16172,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219990704"/>
+        <c:crossAx val="305217776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219990704"/>
+        <c:axId val="305217776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -16224,7 +16225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16291,12 +16291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219990144"/>
+        <c:crossAx val="305217216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219991264"/>
+        <c:axId val="305218336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -16341,12 +16341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219991824"/>
+        <c:crossAx val="305218896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219991824"/>
+        <c:axId val="305218896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16356,7 +16356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219991264"/>
+        <c:crossAx val="305218336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16677,11 +16677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220155616"/>
-        <c:axId val="220156176"/>
+        <c:axId val="305230800"/>
+        <c:axId val="305231360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220155616"/>
+        <c:axId val="305230800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16738,12 +16738,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220156176"/>
+        <c:crossAx val="305231360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220156176"/>
+        <c:axId val="305231360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16800,7 +16800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220155616"/>
+        <c:crossAx val="305230800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17202,11 +17202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="351779856"/>
-        <c:axId val="351778736"/>
+        <c:axId val="305234720"/>
+        <c:axId val="305235280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="351779856"/>
+        <c:axId val="305234720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17263,12 +17263,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351778736"/>
+        <c:crossAx val="305235280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="351778736"/>
+        <c:axId val="305235280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17325,7 +17325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351779856"/>
+        <c:crossAx val="305234720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17432,1212 +17432,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$44:$A$242</c:f>
+              <c:f>Sheet1!$A$44:$A$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.1330001354217529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.130000114440918</c:v>
+                  <c:v>21.142000198364258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.130000114440918</c:v>
+                  <c:v>41.139000177383423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.140000104904175</c:v>
+                  <c:v>61.148000001907349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.142000198364258</c:v>
+                  <c:v>81.16100001335144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.138000011444092</c:v>
+                  <c:v>101.17600011825562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.139000177383423</c:v>
+                  <c:v>121.17500019073486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.141000032424927</c:v>
+                  <c:v>141.17799997329712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.139000177383423</c:v>
+                  <c:v>161.17600011825562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.136000156402588</c:v>
+                  <c:v>181.18200016021729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.133000135421753</c:v>
+                  <c:v>201.20000004768372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.142000198364258</c:v>
+                  <c:v>221.21800017356873</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.148000001907349</c:v>
+                  <c:v>241.3510000705719</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.147000074386597</c:v>
+                  <c:v>261.39300012588501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.14300012588501</c:v>
+                  <c:v>281.39600014686584</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.170000076293945</c:v>
+                  <c:v>301.38800001144409</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.16100001335144</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86.170000076293945</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91.166000127792358</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96.176000118255615</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101.17600011825562</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>106.17300009727478</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>111.17700004577637</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>116.17500019073486</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121.17500019073486</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>126.17300009727478</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>131.17900013923645</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>136.17900013923645</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>141.17799997329712</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>146.1710000038147</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>151.17799997329712</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>156.17799997329712</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>161.17600011825562</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>166.17200016975403</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>171.56300020217896</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>176.18600010871887</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>181.18200016021729</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>186.17900013923645</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>191.84100008010864</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>196.19800019264221</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>201.20000004768372</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>206.19200015068054</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>211.21700000762939</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>216.21000003814697</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>221.21800017356873</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>226.21700000762939</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>232.89000010490417</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>236.35199999809265</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>241.3510000705719</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>246.34800004959106</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>251.35400009155273</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>256.37800002098083</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>261.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>266.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>271.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>276.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>281.39600014686584</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>286.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>291.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>296.41400003433228</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>301.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>306.38300013542175</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>311.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>316.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="64">
                   <c:v>321.38499999046326</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>326.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>331.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>336.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="17" formatCode="General">
                   <c:v>341.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>346.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>351.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>356.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>361.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>366.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>371.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>376.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>381.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>386.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>391.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>396.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>401.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>406.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>411.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>416.38199996948242</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>421.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>426.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>431.38199996948242</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>436.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>441.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>446.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>451.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>456.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>461.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>466.38199996948242</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>471.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>476.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>481.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>486.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>491.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>496.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>501.42799997329712</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>506.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>511.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>516.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>521.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>526.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>531.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>536.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>541.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>546.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>551.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>556.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>561.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>566.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>571.39600014686584</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>576.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>581.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>586.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>591.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>596.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>601.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>606.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>611.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>616.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>621.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>626.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>631.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>636.39600014686584</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>641.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>646.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>651.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>656.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>661.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>666.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>671.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>676.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>681.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>686.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>691.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>696.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>701.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>706.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>711.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>716.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>721.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>726.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>731.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>736.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>741.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>746.40300011634827</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>751.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>756.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>761.40200018882751</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>766.40499997138977</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>771.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>776.40700006484985</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>781.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>786.40400004386902</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>791.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>796.40499997138977</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>801.40400004386902</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>806.40100002288818</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>811.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>816.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>821.40100002288818</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>826.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>831.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>836.4060001373291</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>841.45000004768372</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>846.40499997138977</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>851.40100002288818</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>856.40700006484985</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>861.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>866.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>871.41100001335144</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>876.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>881.40900015830994</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>886.41000008583069</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>891.41400003433228</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>896.41500020027161</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>901.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>906.42200016975403</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>911.4060001373291</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>916.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>921.40799999237061</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>926.41500020027161</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>931.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>936.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>941.4060001373291</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>946.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>951.42200016975403</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>956.41000008583069</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>961.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>966.41799998283386</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>971.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>976.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>981.40900015830994</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>986.41600012779236</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>991.41000008583069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$44:$B$242</c:f>
+              <c:f>Sheet1!$B$44:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>343</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>340</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>337</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>343</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>340</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>337</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>348</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>343</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>343</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>349</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>345</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>344</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>429</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="68">
                   <c:v>443</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>444</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>548</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18671,1210 +17585,73 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$44:$A$242</c:f>
+              <c:f>Sheet1!$A$44:$A$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.1330001354217529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.130000114440918</c:v>
+                  <c:v>21.142000198364258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.130000114440918</c:v>
+                  <c:v>41.139000177383423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.140000104904175</c:v>
+                  <c:v>61.148000001907349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.142000198364258</c:v>
+                  <c:v>81.16100001335144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.138000011444092</c:v>
+                  <c:v>101.17600011825562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.139000177383423</c:v>
+                  <c:v>121.17500019073486</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.141000032424927</c:v>
+                  <c:v>141.17799997329712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.139000177383423</c:v>
+                  <c:v>161.17600011825562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.136000156402588</c:v>
+                  <c:v>181.18200016021729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.133000135421753</c:v>
+                  <c:v>201.20000004768372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.142000198364258</c:v>
+                  <c:v>221.21800017356873</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.148000001907349</c:v>
+                  <c:v>241.3510000705719</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.147000074386597</c:v>
+                  <c:v>261.39300012588501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.14300012588501</c:v>
+                  <c:v>281.39600014686584</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.170000076293945</c:v>
+                  <c:v>301.38800001144409</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.16100001335144</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86.170000076293945</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91.166000127792358</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>96.176000118255615</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101.17600011825562</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>106.17300009727478</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>111.17700004577637</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>116.17500019073486</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>121.17500019073486</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>126.17300009727478</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>131.17900013923645</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>136.17900013923645</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>141.17799997329712</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>146.1710000038147</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>151.17799997329712</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>156.17799997329712</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>161.17600011825562</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>166.17200016975403</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>171.56300020217896</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>176.18600010871887</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>181.18200016021729</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>186.17900013923645</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>191.84100008010864</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>196.19800019264221</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>201.20000004768372</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>206.19200015068054</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>211.21700000762939</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>216.21000003814697</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>221.21800017356873</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>226.21700000762939</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>232.89000010490417</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>236.35199999809265</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>241.3510000705719</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>246.34800004959106</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>251.35400009155273</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>256.37800002098083</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>261.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>266.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>271.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>276.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>281.39600014686584</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>286.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>291.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>296.41400003433228</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>301.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>306.38300013542175</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>311.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>316.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="64">
                   <c:v>321.38499999046326</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>326.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>331.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>336.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="17" formatCode="General">
                   <c:v>341.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>346.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>351.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>356.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>361.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>366.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>371.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>376.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>381.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>386.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>391.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>396.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>401.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>406.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>411.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>416.38199996948242</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>421.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>426.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>431.38199996948242</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>436.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>441.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>446.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>451.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>456.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>461.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>466.38199996948242</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>471.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>476.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>481.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>486.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>491.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>496.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>501.42799997329712</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>506.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>511.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>516.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>521.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>526.3840000629425</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>531.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>536.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>541.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>546.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>551.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>556.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>561.38600015640259</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>566.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>571.39600014686584</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>576.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>581.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>586.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>591.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>596.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>601.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>606.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>611.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>616.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>621.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>626.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>631.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>636.39600014686584</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>641.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>646.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>651.39200019836426</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>656.38700008392334</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>661.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>666.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>671.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>676.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>681.38900017738342</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>686.38499999046326</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>691.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>696.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>701.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>706.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>711.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>716.39000010490417</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>721.38800001144409</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>726.39300012588501</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>731.39100003242493</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>736.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>741.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>746.40300011634827</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>751.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>756.3970000743866</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>761.40200018882751</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>766.40499997138977</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>771.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>776.40700006484985</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>781.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>786.40400004386902</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>791.40000009536743</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>796.40499997138977</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>801.40400004386902</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>806.40100002288818</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>811.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>816.39499998092651</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>821.40100002288818</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>826.39800000190735</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>831.39400005340576</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>836.4060001373291</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>841.45000004768372</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>846.40499997138977</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>851.40100002288818</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>856.40700006484985</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>861.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>866.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>871.41100001335144</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>876.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>881.40900015830994</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>886.41000008583069</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>891.41400003433228</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>896.41500020027161</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>901.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>906.42200016975403</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>911.4060001373291</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>916.41300010681152</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>921.40799999237061</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>926.41500020027161</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>931.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>936.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>941.4060001373291</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>946.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>951.42200016975403</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>956.41000008583069</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>961.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>966.41799998283386</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>971.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>976.41200017929077</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>981.40900015830994</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>986.41600012779236</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>991.41000008583069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$45:$D$242</c:f>
+              <c:f>Sheet1!$D$44:$D$61</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="198"/>
-                <c:pt idx="0">
-                  <c:v>345.50236971436368</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>344.50828632938118</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>344.50828632938118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>341.52603617443367</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>338.54378601948611</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>344.50828632938118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>342.52011955941617</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>345.50236971436368</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>341.52603617443367</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>338.54378601948611</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>347.49053648432869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>349.47870325429369</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>344.50828632938118</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>344.50828632938118</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>350.47278663927625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>346.49645309934618</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>345.89544585662821</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>349.87177939655822</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>354.84219632147079</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>353.84811293648829</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>358.8185298614008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>355.8362797064533</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>357.8244464764183</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>356.8303630914358</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>356.8303630914358</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>353.84811293648829</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>366.77119694126088</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>371.74161386617345</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>372.73569725115595</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>372.73569725115595</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>377.70611417606852</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>381.68244771599853</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>384.66469787094604</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>385.6587812559286</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>388.64103141087611</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>391.62328156582362</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>388.64103141087611</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>386.6528646409111</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>387.64694802589361</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>389.63511479585861</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>394.60553172077118</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>394.60553172077118</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>401.5641154156487</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>402.5581988006312</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>407.52861572554377</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>408.52269911052628</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>404.54636557059627</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>412.49903265045634</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>415.48128280540385</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>417.46944957536886</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>416.47536619038635</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>415.48128280540385</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>416.47536619038635</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>418.46353296035136</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>425.42211665522893</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>420.45169973031636</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>423.43394988526393</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>422.43986650028143</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>426.41620004021144</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>423.43394988526393</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>424.42803327024643</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>430.3925335801415</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>440.33336742996659</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>439.33928404498408</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>433.37478373508901</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>442.32153419993159</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>443.31561758491409</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>447.29195112484416</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>444.3097009698966</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>449.28011789480917</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>448.28603450982666</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>445.3037843548791</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>450.27420127979167</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>447.29195112484416</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>449.28011789480917</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>453.25645143473918</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>455.24461820470418</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>452.26236804975667</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>454.25053481972168</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>454.25053481972168</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>457.23278497466924</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>454.25053481972168</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>457.23278497466924</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>460.21503512961675</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>461.20911851459925</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>464.19136866954676</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>475.1262859043544</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>469.16178559445933</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>466.17953543951182</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>470.15586897944183</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>473.13811913438934</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>476.12036928933691</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>478.10853605930191</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>478.10853605930191</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>481.09078621424942</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>478.10853605930191</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>480.09670282926692</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>482.08486959923192</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>482.08486959923192</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>479.10261944428441</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>481.09078621424942</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>484.07303636919698</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>484.07303636919698</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>484.07303636919698</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>484.07303636919698</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>484.07303636919698</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>484.07303636919698</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>485.06711975417949</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>485.06711975417949</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>487.05528652414449</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>490.037536679092</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>492.02570344905706</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>488.04936990912699</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>493.01978683403956</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>493.01978683403956</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>494.01387021902207</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>496.00203698898707</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>500.97245391389964</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>499.97837052891714</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>498.98428714393458</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>504.94878745382965</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>503.95470406884715</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>506.93695422379466</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>503.95470406884715</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>507.93103760877716</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>511.90737114870723</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>509.91920437874222</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>506.93695422379466</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>509.91920437874222</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>509.91920437874222</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>511.90737114870723</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>512.90145453368973</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>511.90737114870723</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>514.88962130365474</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>511.90737114870723</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>511.90737114870723</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>512.90145453368973</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>512.90145453368973</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>513.89553791867218</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>513.89553791867218</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>512.90145453368973</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>515.88370468863718</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>515.88370468863718</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>516.87778807361974</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>514.88962130365474</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>525.82453853846232</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>525.82453853846232</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>519.8600382285673</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>523.83637176849732</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>520.85412161354975</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>520.85412161354975</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>520.85412161354975</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>524.83045515347987</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>536.75945577326991</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>526.81862192344488</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>534.7712890033049</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>539.74170592821747</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>541.72987269818248</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>541.72987269818248</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>542.72395608316504</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>542.72395608316504</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>542.72395608316504</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>543.71803946814748</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>543.71803946814748</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>546.70028962309505</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>547.69437300807749</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>545.70620623811249</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>545.70620623811249</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>543.71803946814748</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>545.70620623811249</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>543.71803946814748</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>551.67070654800762</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>550.67662316302506</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>549.68253977804261</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>546.70028962309505</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>547.69437300807749</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>549.68253977804261</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>552.66478993299006</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>549.68253977804261</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>553.65887331797262</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>551.67070654800762</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>560.6174570128502</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>548.68845639306005</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>558.62929024288519</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>564.59379055278021</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>563.59970716779765</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>554.65295670295507</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>554.65295670295507</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>560.6174570128502</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>563.59970716779765</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>566.58195732274521</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>564.59379055278021</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>557.63520685790263</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>562.6056237828152</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>564.59379055278021</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>563.59970716779765</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>561.61154039783264</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>562.6056237828152</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19888,11 +17665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="355119968"/>
-        <c:axId val="355119408"/>
+        <c:axId val="306501632"/>
+        <c:axId val="306502192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="355119968"/>
+        <c:axId val="306501632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19912,7 +17689,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -19949,12 +17726,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355119408"/>
+        <c:crossAx val="306502192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355119408"/>
+        <c:axId val="306502192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20011,7 +17788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355119968"/>
+        <c:crossAx val="306501632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24162,16 +21939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24839,17 +22616,17 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -24889,13 +22666,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -24937,13 +22714,13 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -42274,10 +40051,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42515,10 +40292,10 @@
       <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -42532,7 +40309,7 @@
       <c r="C21">
         <v>400</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>1</v>
       </c>
       <c r="H21" s="3">
@@ -42561,7 +40338,7 @@
         <f>SUM(E21:E22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="9">
         <v>0.49913270779434638</v>
       </c>
       <c r="H22" s="3">
@@ -42590,7 +40367,7 @@
         <f>SUM(E22:E23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="9">
         <v>0.52798015203090165</v>
       </c>
       <c r="H23" s="3">
@@ -42616,10 +40393,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F23:F38" si="3">SUM(E23:E24)</f>
+        <f t="shared" ref="F24:F38" si="3">SUM(E23:E24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <v>0.52947084506210718</v>
       </c>
       <c r="H24" s="3">
@@ -42641,14 +40418,14 @@
         <v>972</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E22:E38" si="4">(B25-D25)^2</f>
+        <f t="shared" ref="E25:E38" si="4">(B25-D25)^2</f>
         <v>160000</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <v>1</v>
       </c>
       <c r="H25" s="3">
@@ -42677,7 +40454,7 @@
         <f t="shared" si="3"/>
         <v>323216</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="9">
         <v>1</v>
       </c>
       <c r="H26" s="3">
@@ -42706,7 +40483,7 @@
         <f t="shared" si="3"/>
         <v>332960</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="9">
         <v>1</v>
       </c>
       <c r="H27" s="3">
@@ -42735,7 +40512,7 @@
         <f t="shared" si="3"/>
         <v>337844</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="9">
         <v>1</v>
       </c>
       <c r="H28" s="3">
@@ -42764,7 +40541,7 @@
         <f t="shared" si="3"/>
         <v>326504</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="9">
         <v>1</v>
       </c>
       <c r="H29" s="3">
@@ -42793,7 +40570,7 @@
         <f t="shared" si="3"/>
         <v>321620</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="9">
         <v>1</v>
       </c>
       <c r="H30" s="3">
@@ -42822,7 +40599,7 @@
         <f t="shared" si="3"/>
         <v>324820</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="9">
         <v>1</v>
       </c>
       <c r="H31" s="3">
@@ -42851,7 +40628,7 @@
         <f t="shared" si="3"/>
         <v>323208</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <v>1</v>
       </c>
       <c r="H32" s="3">
@@ -42880,7 +40657,7 @@
         <f t="shared" si="3"/>
         <v>331348</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="9">
         <v>1</v>
       </c>
       <c r="H33" s="3">
@@ -42909,7 +40686,7 @@
         <f t="shared" si="3"/>
         <v>338665</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="9">
         <v>1</v>
       </c>
       <c r="H34" s="3">
@@ -42938,7 +40715,7 @@
         <f t="shared" si="3"/>
         <v>332137</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="9">
         <v>1</v>
       </c>
       <c r="H35" s="3">
@@ -42967,7 +40744,7 @@
         <f t="shared" si="3"/>
         <v>325625</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="9">
         <v>1</v>
       </c>
       <c r="H36" s="3">
@@ -42996,7 +40773,7 @@
         <f t="shared" si="3"/>
         <v>326434</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="9">
         <v>1</v>
       </c>
       <c r="H37" s="3">
@@ -43025,7 +40802,7 @@
         <f t="shared" si="3"/>
         <v>323226</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="9">
         <v>1</v>
       </c>
       <c r="H38" s="3">
@@ -43045,15 +40822,9 @@
       <c r="C43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="5">
         <v>1.1330001354217529</v>
       </c>
       <c r="B44">
@@ -43062,3787 +40833,1950 @@
       <c r="C44">
         <v>450</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.99408338498250903</v>
-      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>6.130000114440918</v>
+      <c r="A45" s="5">
+        <v>21.142000198364258</v>
       </c>
       <c r="B45">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C45">
         <v>450</v>
       </c>
-      <c r="D45" s="5">
-        <f>(B44*$G$44)+(C44*$G$45)</f>
-        <v>345.50236971436368</v>
-      </c>
-      <c r="E45" s="5">
-        <f>(B45-D45)^2</f>
-        <v>6.2618541873645706</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="3">
-        <v>7.8615228452901861E-3</v>
-      </c>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>11.130000114440918</v>
+      <c r="A46" s="5">
+        <v>41.139000177383423</v>
       </c>
       <c r="B46">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C46">
         <v>450</v>
       </c>
-      <c r="D46" s="5">
-        <f>(B45*$G$44)+(C45*$G$45)</f>
-        <v>344.50828632938118</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" ref="E46:E109" si="5">(B46-D46)^2</f>
-        <v>2.2749276513981482</v>
-      </c>
-      <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="5">
-        <f>SUM(E45:E242)</f>
-        <v>2869.3109783581417</v>
-      </c>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>16.140000104904175</v>
+      <c r="A47" s="5">
+        <v>61.148000001907349</v>
       </c>
       <c r="B47">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C47">
         <v>450</v>
       </c>
-      <c r="D47" s="5">
-        <f>(B46*$G$44)+(C46*$G$45)</f>
-        <v>344.50828632938118</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="5"/>
-        <v>20.324645627685218</v>
-      </c>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>21.142000198364258</v>
+      <c r="A48" s="5">
+        <v>81.16100001335144</v>
       </c>
       <c r="B48">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C48">
-        <v>450</v>
-      </c>
-      <c r="D48" s="5">
-        <f>(B47*$G$44)+(C47*$G$45)</f>
-        <v>341.52603617443367</v>
-      </c>
-      <c r="E48" s="5">
-        <f t="shared" si="5"/>
-        <v>20.485003452282175</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>26.138000011444092</v>
+      <c r="A49" s="5">
+        <v>101.17600011825562</v>
       </c>
       <c r="B49">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C49">
-        <v>450</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" ref="D46:D109" si="6">(B48*$G$44)+(C48*$G$45)</f>
-        <v>338.54378601948611</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="5"/>
-        <v>19.857843040127484</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>31.139000177383423</v>
+        <v>500</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>121.17500019073486</v>
       </c>
       <c r="B50">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C50">
-        <v>450</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="6"/>
-        <v>344.50828632938118</v>
-      </c>
-      <c r="E50" s="5">
-        <f t="shared" si="5"/>
-        <v>12.308072968922861</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>36.141000032424927</v>
+      <c r="A51" s="5">
+        <v>141.17799997329712</v>
       </c>
       <c r="B51">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="C51">
-        <v>450</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="6"/>
-        <v>342.52011955941617</v>
-      </c>
-      <c r="E51" s="5">
-        <f t="shared" si="5"/>
-        <v>2.1900461184225812</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>41.139000177383423</v>
+      <c r="A52" s="5">
+        <v>161.17600011825562</v>
       </c>
       <c r="B52">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="C52">
-        <v>450</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="6"/>
-        <v>345.50236971436368</v>
-      </c>
-      <c r="E52" s="5">
-        <f t="shared" si="5"/>
-        <v>30.276072473546655</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>46.136000156402588</v>
+      <c r="A53" s="5">
+        <v>181.18200016021729</v>
       </c>
       <c r="B53">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="C53">
-        <v>450</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="6"/>
-        <v>341.52603617443367</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="5"/>
-        <v>20.485003452282175</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>51.133000135421753</v>
+      <c r="A54" s="5">
+        <v>201.20000004768372</v>
       </c>
       <c r="B54">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="C54">
-        <v>450</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="6"/>
-        <v>338.54378601948611</v>
-      </c>
-      <c r="E54" s="5">
-        <f t="shared" si="5"/>
-        <v>55.595126923210849</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>56.142000198364258</v>
+      <c r="A55" s="5">
+        <v>221.21800017356873</v>
       </c>
       <c r="B55">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="C55">
-        <v>450</v>
-      </c>
-      <c r="D55" s="5">
-        <f t="shared" si="6"/>
-        <v>347.49053648432869</v>
-      </c>
-      <c r="E55" s="5">
-        <f t="shared" si="5"/>
-        <v>0.25955307380017506</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>61.148000001907349</v>
+      <c r="A56" s="5">
+        <v>241.3510000705719</v>
       </c>
       <c r="B56">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="C56">
-        <v>450</v>
-      </c>
-      <c r="D56" s="5">
-        <f t="shared" si="6"/>
-        <v>349.47870325429369</v>
-      </c>
-      <c r="E56" s="5">
-        <f t="shared" si="5"/>
-        <v>41.973595857195669</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>66.147000074386597</v>
+      <c r="A57" s="5">
+        <v>261.39300012588501</v>
       </c>
       <c r="B57">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="C57">
-        <v>450</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="6"/>
-        <v>344.50828632938118</v>
-      </c>
-      <c r="E57" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2749276513981482</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>71.14300012588501</v>
+      <c r="A58" s="5">
+        <v>281.39600014686584</v>
       </c>
       <c r="B58">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="C58">
-        <v>450</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" si="6"/>
-        <v>344.50828632938118</v>
-      </c>
-      <c r="E58" s="5">
-        <f t="shared" si="5"/>
-        <v>20.175491698824008</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>76.170000076293945</v>
+      <c r="A59" s="5">
+        <v>301.38800001144409</v>
       </c>
       <c r="B59">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="C59">
-        <v>450</v>
-      </c>
-      <c r="D59" s="5">
-        <f t="shared" si="6"/>
-        <v>350.47278663927625</v>
-      </c>
-      <c r="E59" s="5">
-        <f t="shared" si="5"/>
-        <v>29.951393599040639</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>81.16100001335144</v>
+      <c r="A60" s="5">
+        <v>321.38499999046326</v>
       </c>
       <c r="B60">
-        <v>344</v>
+        <v>432</v>
       </c>
       <c r="C60">
         <v>500</v>
       </c>
-      <c r="D60" s="5">
-        <f t="shared" si="6"/>
-        <v>346.49645309934618</v>
-      </c>
-      <c r="E60" s="5">
-        <f t="shared" si="5"/>
-        <v>6.2322780772351658</v>
-      </c>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>86.170000076293945</v>
+        <v>341.39100003242493</v>
       </c>
       <c r="B61">
-        <v>348</v>
+        <v>443</v>
       </c>
       <c r="C61">
         <v>500</v>
       </c>
-      <c r="D61" s="5">
-        <f t="shared" si="6"/>
-        <v>345.89544585662821</v>
-      </c>
-      <c r="E61" s="5">
-        <f t="shared" si="5"/>
-        <v>4.429148142383351</v>
-      </c>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>91.166000127792358</v>
-      </c>
-      <c r="B62">
-        <v>353</v>
-      </c>
-      <c r="C62">
-        <v>500</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="6"/>
-        <v>349.87177939655822</v>
-      </c>
-      <c r="E62" s="5">
-        <f t="shared" si="5"/>
-        <v>9.7857641437976248</v>
-      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>96.176000118255615</v>
+        <v>346.38800001144409</v>
       </c>
       <c r="B63">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="C63">
         <v>500</v>
       </c>
-      <c r="D63" s="5">
-        <f t="shared" si="6"/>
-        <v>354.84219632147079</v>
-      </c>
-      <c r="E63" s="5">
-        <f t="shared" si="5"/>
-        <v>8.0780799297821151</v>
-      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>101.17600011825562</v>
+        <v>351.39400005340576</v>
       </c>
       <c r="B64">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="C64">
         <v>500</v>
       </c>
-      <c r="D64" s="5">
-        <f t="shared" si="6"/>
-        <v>353.84811293648829</v>
-      </c>
-      <c r="E64" s="5">
-        <f t="shared" si="5"/>
-        <v>9.9343920611324599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>106.17300009727478</v>
+        <v>356.39200019836426</v>
       </c>
       <c r="B65">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="C65">
         <v>500</v>
       </c>
-      <c r="D65" s="5">
-        <f t="shared" si="6"/>
-        <v>358.8185298614008</v>
-      </c>
-      <c r="E65" s="5">
-        <f t="shared" si="5"/>
-        <v>23.218230025211259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>111.17700004577637</v>
+        <v>361.39200019836426</v>
       </c>
       <c r="B66">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="C66">
         <v>500</v>
       </c>
-      <c r="D66" s="5">
-        <f t="shared" si="6"/>
-        <v>355.8362797064533</v>
-      </c>
-      <c r="E66" s="5">
-        <f t="shared" si="5"/>
-        <v>2.6804334519018612E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>116.17500019073486</v>
+        <v>366.39000010490417</v>
       </c>
       <c r="B67">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="C67">
         <v>500</v>
       </c>
-      <c r="D67" s="5">
-        <f t="shared" si="6"/>
-        <v>357.8244464764183</v>
-      </c>
-      <c r="E67" s="5">
-        <f t="shared" si="5"/>
-        <v>7.9774978981517624</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0.98319000999999995</v>
+      </c>
+      <c r="J67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>121.17500019073486</v>
+        <v>371.38600015640259</v>
       </c>
       <c r="B68">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="C68">
         <v>500</v>
       </c>
-      <c r="D68" s="5">
-        <f t="shared" si="6"/>
-        <v>356.8303630914358</v>
-      </c>
-      <c r="E68" s="5">
-        <f t="shared" si="5"/>
-        <v>3.350229046490417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="7">
+        <v>2.5388319999999999E-2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="5">
+        <f>(K67-(G67*G69))/G68</f>
+        <v>529.30742049887533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>126.17300009727478</v>
+        <v>376.39200019836426</v>
       </c>
       <c r="B69">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="C69">
         <v>500</v>
       </c>
-      <c r="D69" s="5">
-        <f t="shared" si="6"/>
-        <v>356.8303630914358</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" si="5"/>
-        <v>23.332407595105213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>131.17900013923645</v>
+        <v>381.39000010490417</v>
       </c>
       <c r="B70">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="C70">
         <v>500</v>
       </c>
-      <c r="D70" s="5">
-        <f t="shared" si="6"/>
-        <v>353.84811293648829</v>
-      </c>
-      <c r="E70" s="5">
-        <f t="shared" si="5"/>
-        <v>124.36458507731979</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>136.17900013923645</v>
+        <v>386.38700008392334</v>
       </c>
       <c r="B71">
-        <v>370</v>
+        <v>451</v>
       </c>
       <c r="C71">
         <v>500</v>
       </c>
-      <c r="D71" s="5">
-        <f t="shared" si="6"/>
-        <v>366.77119694126088</v>
-      </c>
-      <c r="E71" s="5">
-        <f t="shared" si="5"/>
-        <v>10.425169192123082</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="4">
+        <f>(G69*G67)+(G70*G68)</f>
+        <v>389.25593383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>141.17799997329712</v>
+        <v>391.38800001144409</v>
       </c>
       <c r="B72">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="C72">
         <v>500</v>
       </c>
-      <c r="D72" s="5">
-        <f t="shared" si="6"/>
-        <v>371.74161386617345</v>
-      </c>
-      <c r="E72" s="5">
-        <f t="shared" si="5"/>
-        <v>0.54999112650073501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>146.1710000038147</v>
+        <v>396.38499999046326</v>
       </c>
       <c r="B73">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="C73">
         <v>500</v>
       </c>
-      <c r="D73" s="5">
-        <f t="shared" si="6"/>
-        <v>372.73569725115595</v>
-      </c>
-      <c r="E73" s="5">
-        <f t="shared" si="5"/>
-        <v>3.0126449476703376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>151.17799997329712</v>
+        <v>401.38700008392334</v>
       </c>
       <c r="B74">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="C74">
         <v>500</v>
       </c>
-      <c r="D74" s="5">
-        <f t="shared" si="6"/>
-        <v>372.73569725115595</v>
-      </c>
-      <c r="E74" s="5">
-        <f t="shared" si="5"/>
-        <v>10.655672436110789</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>156.17799997329712</v>
+        <v>406.38900017738342</v>
       </c>
       <c r="B75">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="C75">
         <v>500</v>
       </c>
-      <c r="D75" s="5">
-        <f t="shared" si="6"/>
-        <v>377.70611417606852</v>
-      </c>
-      <c r="E75" s="5">
-        <f t="shared" si="5"/>
-        <v>5.2619121732337844</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>161.17600011825562</v>
+        <v>411.39300012588501</v>
       </c>
       <c r="B76">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="C76">
         <v>500</v>
       </c>
-      <c r="D76" s="5">
-        <f t="shared" si="6"/>
-        <v>381.68244771599853</v>
-      </c>
-      <c r="E76" s="5">
-        <f t="shared" si="5"/>
-        <v>1.7359440210774773</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>166.17200016975403</v>
+        <v>416.38199996948242</v>
       </c>
       <c r="B77">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="C77">
         <v>500</v>
       </c>
-      <c r="D77" s="5">
-        <f t="shared" si="6"/>
-        <v>384.66469787094604</v>
-      </c>
-      <c r="E77" s="5">
-        <f t="shared" si="5"/>
-        <v>0.44182325964020203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>171.56300020217896</v>
+        <v>421.3840000629425</v>
       </c>
       <c r="B78">
-        <v>387</v>
+        <v>460</v>
       </c>
       <c r="C78">
         <v>500</v>
       </c>
-      <c r="D78" s="5">
-        <f t="shared" si="6"/>
-        <v>385.6587812559286</v>
-      </c>
-      <c r="E78" s="5">
-        <f t="shared" si="5"/>
-        <v>1.7988677194484579</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>176.18600010871887</v>
+        <v>426.38499999046326</v>
       </c>
       <c r="B79">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="C79">
         <v>500</v>
       </c>
-      <c r="D79" s="5">
-        <f t="shared" si="6"/>
-        <v>388.64103141087611</v>
-      </c>
-      <c r="E79" s="5">
-        <f t="shared" si="5"/>
-        <v>1.8467956262253764</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>181.18200016021729</v>
+        <v>431.38199996948242</v>
       </c>
       <c r="B80">
-        <v>387</v>
+        <v>474</v>
       </c>
       <c r="C80">
         <v>500</v>
       </c>
-      <c r="D80" s="5">
-        <f t="shared" si="6"/>
-        <v>391.62328156582362</v>
-      </c>
-      <c r="E80" s="5">
-        <f t="shared" si="5"/>
-        <v>21.374732436884482</v>
-      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>186.17900013923645</v>
+        <v>436.3840000629425</v>
       </c>
       <c r="B81">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="C81">
         <v>500</v>
       </c>
-      <c r="D81" s="5">
-        <f t="shared" si="6"/>
-        <v>388.64103141087611</v>
-      </c>
-      <c r="E81" s="5">
-        <f t="shared" si="5"/>
-        <v>13.257109734986475</v>
-      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>191.84100008010864</v>
+        <v>441.39000010490417</v>
       </c>
       <c r="B82">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="C82">
         <v>500</v>
       </c>
-      <c r="D82" s="5">
-        <f t="shared" si="6"/>
-        <v>386.6528646409111</v>
-      </c>
-      <c r="E82" s="5">
-        <f t="shared" si="5"/>
-        <v>0.42623223935198573</v>
-      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>196.19800019264221</v>
+        <v>446.38600015640259</v>
       </c>
       <c r="B83">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="C83">
         <v>500</v>
       </c>
-      <c r="D83" s="5">
-        <f t="shared" si="6"/>
-        <v>387.64694802589361</v>
-      </c>
-      <c r="E83" s="5">
-        <f t="shared" si="5"/>
-        <v>0.12464569642042096</v>
-      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>201.20000004768372</v>
+        <v>451.3840000629425</v>
       </c>
       <c r="B84">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="C84">
         <v>500</v>
       </c>
-      <c r="D84" s="5">
-        <f t="shared" si="6"/>
-        <v>389.63511479585861</v>
-      </c>
-      <c r="E84" s="5">
-        <f t="shared" si="5"/>
-        <v>11.322452437049627</v>
-      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>206.19200015068054</v>
+        <v>456.39000010490417</v>
       </c>
       <c r="B85">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="C85">
         <v>500</v>
       </c>
-      <c r="D85" s="5">
-        <f t="shared" si="6"/>
-        <v>394.60553172077118</v>
-      </c>
-      <c r="E85" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5777321064024736</v>
-      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211.21700000762939</v>
+        <v>461.38600015640259</v>
       </c>
       <c r="B86">
-        <v>400</v>
+        <v>477</v>
       </c>
       <c r="C86">
         <v>500</v>
       </c>
-      <c r="D86" s="5">
-        <f t="shared" si="6"/>
-        <v>394.60553172077118</v>
-      </c>
-      <c r="E86" s="5">
-        <f t="shared" si="5"/>
-        <v>29.100288015605923</v>
-      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>216.21000003814697</v>
+        <v>466.38199996948242</v>
       </c>
       <c r="B87">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="C87">
         <v>500</v>
       </c>
-      <c r="D87" s="5">
-        <f t="shared" si="6"/>
-        <v>401.5641154156487</v>
-      </c>
-      <c r="E87" s="5">
-        <f t="shared" si="5"/>
-        <v>0.31822620217250613</v>
-      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>221.21800017356873</v>
+        <v>471.39100003242493</v>
       </c>
       <c r="B88">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="C88">
         <v>500</v>
       </c>
-      <c r="D88" s="5">
-        <f t="shared" si="6"/>
-        <v>402.5581988006312</v>
-      </c>
-      <c r="E88" s="5">
-        <f t="shared" si="5"/>
-        <v>11.845995495976489</v>
-      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>226.21700000762939</v>
+        <v>476.38800001144409</v>
       </c>
       <c r="B89">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="C89">
         <v>500</v>
       </c>
-      <c r="D89" s="5">
-        <f t="shared" si="6"/>
-        <v>407.52861572554377</v>
-      </c>
-      <c r="E89" s="5">
-        <f t="shared" si="5"/>
-        <v>0.27943458529216941</v>
-      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>232.89000010490417</v>
+        <v>481.38800001144409</v>
       </c>
       <c r="B90">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="C90">
         <v>500</v>
       </c>
-      <c r="D90" s="5">
-        <f t="shared" si="6"/>
-        <v>408.52269911052628</v>
-      </c>
-      <c r="E90" s="5">
-        <f t="shared" si="5"/>
-        <v>30.500205465407713</v>
-      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>236.35199999809265</v>
+        <v>486.38499999046326</v>
       </c>
       <c r="B91">
-        <v>411</v>
+        <v>481</v>
       </c>
       <c r="C91">
         <v>500</v>
       </c>
-      <c r="D91" s="5">
-        <f t="shared" si="6"/>
-        <v>404.54636557059627</v>
-      </c>
-      <c r="E91" s="5">
-        <f t="shared" si="5"/>
-        <v>41.649397348385271</v>
-      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>241.3510000705719</v>
+        <v>491.39100003242493</v>
       </c>
       <c r="B92">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="C92">
         <v>500</v>
       </c>
-      <c r="D92" s="5">
-        <f t="shared" si="6"/>
-        <v>412.49903265045634</v>
-      </c>
-      <c r="E92" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2529029843961115</v>
-      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>246.34800004959106</v>
+        <v>496.38900017738342</v>
       </c>
       <c r="B93">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="C93">
         <v>500</v>
       </c>
-      <c r="D93" s="5">
-        <f t="shared" si="6"/>
-        <v>415.48128280540385</v>
-      </c>
-      <c r="E93" s="5">
-        <f t="shared" si="5"/>
-        <v>0.26906752796969963</v>
-      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>251.35400009155273</v>
+        <v>501.42799997329712</v>
       </c>
       <c r="B94">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="C94">
         <v>500</v>
       </c>
-      <c r="D94" s="5">
-        <f t="shared" si="6"/>
-        <v>417.46944957536886</v>
-      </c>
-      <c r="E94" s="5">
-        <f t="shared" si="5"/>
-        <v>6.0981812052894213</v>
-      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>256.37800002098083</v>
+        <v>506.38700008392334</v>
       </c>
       <c r="B95">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="C95">
         <v>500</v>
       </c>
-      <c r="D95" s="5">
-        <f t="shared" si="6"/>
-        <v>416.47536619038635</v>
-      </c>
-      <c r="E95" s="5">
-        <f t="shared" si="5"/>
-        <v>6.1274377765078469</v>
-      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>261.39300012588501</v>
+        <v>511.39400005340576</v>
       </c>
       <c r="B96">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="C96">
         <v>500</v>
       </c>
-      <c r="D96" s="5">
-        <f t="shared" si="6"/>
-        <v>415.48128280540385</v>
-      </c>
-      <c r="E96" s="5">
-        <f t="shared" si="5"/>
-        <v>0.2316331387774006</v>
-      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>266.39100003242493</v>
+        <v>516.38900017738342</v>
       </c>
       <c r="B97">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="C97">
         <v>500</v>
       </c>
-      <c r="D97" s="5">
-        <f t="shared" si="6"/>
-        <v>416.47536619038635</v>
-      </c>
-      <c r="E97" s="5">
-        <f t="shared" si="5"/>
-        <v>0.27524063418972833</v>
-      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>271.39499998092651</v>
+        <v>521.38600015640259</v>
       </c>
       <c r="B98">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="C98">
         <v>500</v>
       </c>
-      <c r="D98" s="5">
-        <f t="shared" si="6"/>
-        <v>418.46353296035136</v>
-      </c>
-      <c r="E98" s="5">
-        <f t="shared" si="5"/>
-        <v>30.652467281115793</v>
-      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>276.39499998092651</v>
+        <v>526.3840000629425</v>
       </c>
       <c r="B99">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="C99">
         <v>500</v>
       </c>
-      <c r="D99" s="5">
-        <f t="shared" si="6"/>
-        <v>425.42211665522893</v>
-      </c>
-      <c r="E99" s="5">
-        <f t="shared" si="5"/>
-        <v>41.243582333368863</v>
-      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>281.39600014686584</v>
+        <v>531.38900017738342</v>
       </c>
       <c r="B100">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="C100">
         <v>500</v>
       </c>
-      <c r="D100" s="5">
-        <f t="shared" si="6"/>
-        <v>420.45169973031636</v>
-      </c>
-      <c r="E100" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3972337251024216</v>
-      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>286.38499999046326</v>
+        <v>536.39499998092651</v>
       </c>
       <c r="B101">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="C101">
         <v>500</v>
       </c>
-      <c r="D101" s="5">
-        <f t="shared" si="6"/>
-        <v>423.43394988526393</v>
-      </c>
-      <c r="E101" s="5">
-        <f t="shared" si="5"/>
-        <v>5.9241120439762884</v>
-      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>291.39200019836426</v>
+        <v>541.39300012588501</v>
       </c>
       <c r="B102">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="C102">
         <v>500</v>
       </c>
-      <c r="D102" s="5">
-        <f t="shared" si="6"/>
-        <v>422.43986650028143</v>
-      </c>
-      <c r="E102" s="5">
-        <f t="shared" si="5"/>
-        <v>6.5542835363812761</v>
-      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>296.41400003433228</v>
+        <v>546.38900017738342</v>
       </c>
       <c r="B103">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="C103">
         <v>500</v>
       </c>
-      <c r="D103" s="5">
-        <f t="shared" si="6"/>
-        <v>426.41620004021144</v>
-      </c>
-      <c r="E103" s="5">
-        <f t="shared" si="5"/>
-        <v>19.502822795163489</v>
-      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>301.38800001144409</v>
+        <v>551.39100003242493</v>
       </c>
       <c r="B104">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="C104">
         <v>500</v>
       </c>
-      <c r="D104" s="5">
-        <f t="shared" si="6"/>
-        <v>423.43394988526393</v>
-      </c>
-      <c r="E104" s="5">
-        <f t="shared" si="5"/>
-        <v>0.18831250292057636</v>
-      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>306.38300013542175</v>
+        <v>556.38800001144409</v>
       </c>
       <c r="B105">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="C105">
         <v>500</v>
       </c>
-      <c r="D105" s="5">
-        <f t="shared" si="6"/>
-        <v>424.42803327024643</v>
-      </c>
-      <c r="E105" s="5">
-        <f t="shared" si="5"/>
-        <v>20.902879777973546</v>
-      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>311.39300012588501</v>
+        <v>561.38600015640259</v>
       </c>
       <c r="B106">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="C106">
         <v>500</v>
       </c>
-      <c r="D106" s="5">
-        <f t="shared" si="6"/>
-        <v>430.3925335801415</v>
-      </c>
-      <c r="E106" s="5">
-        <f t="shared" si="5"/>
-        <v>74.088478168991657</v>
-      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>316.40000009536743</v>
+        <v>566.39200019836426</v>
       </c>
       <c r="B107">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="C107">
         <v>500</v>
       </c>
-      <c r="D107" s="5">
-        <f t="shared" si="6"/>
-        <v>440.33336742996659</v>
-      </c>
-      <c r="E107" s="5">
-        <f t="shared" si="5"/>
-        <v>5.4446035632288696</v>
-      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>321.38499999046326</v>
+        <v>571.39600014686584</v>
       </c>
       <c r="B108">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="C108">
         <v>500</v>
       </c>
-      <c r="D108" s="5">
-        <f t="shared" si="6"/>
-        <v>439.33928404498408</v>
-      </c>
-      <c r="E108" s="5">
-        <f t="shared" si="5"/>
-        <v>53.86509029295793</v>
-      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>326.39200019836426</v>
+        <v>576.39400005340576</v>
       </c>
       <c r="B109">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="C109">
         <v>500</v>
       </c>
-      <c r="D109" s="5">
-        <f t="shared" si="6"/>
-        <v>433.37478373508901</v>
-      </c>
-      <c r="E109" s="5">
-        <f t="shared" si="5"/>
-        <v>58.143923086663094</v>
-      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>331.38900017738342</v>
+        <v>581.39200019836426</v>
       </c>
       <c r="B110">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="C110">
         <v>500</v>
       </c>
-      <c r="D110" s="5">
-        <f t="shared" ref="D110:D173" si="7">(B109*$G$44)+(C109*$G$45)</f>
-        <v>442.32153419993159</v>
-      </c>
-      <c r="E110" s="5">
-        <f t="shared" ref="E110:E173" si="8">(B110-D110)^2</f>
-        <v>0.10338424172564836</v>
-      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>336.39800000190735</v>
+        <v>586.38700008392334</v>
       </c>
       <c r="B111">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="C111">
         <v>500</v>
       </c>
-      <c r="D111" s="5">
-        <f t="shared" si="7"/>
-        <v>443.31561758491409</v>
-      </c>
-      <c r="E111" s="5">
-        <f t="shared" si="8"/>
-        <v>7.2059089504224429</v>
-      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>341.39100003242493</v>
+        <v>591.39000010490417</v>
       </c>
       <c r="B112">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="C112">
         <v>500</v>
       </c>
-      <c r="D112" s="5">
-        <f t="shared" si="7"/>
-        <v>447.29195112484416</v>
-      </c>
-      <c r="E112" s="5">
-        <f t="shared" si="8"/>
-        <v>18.420844458051057</v>
-      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>346.38800001144409</v>
+        <v>596.3970000743866</v>
       </c>
       <c r="B113">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="C113">
         <v>500</v>
       </c>
-      <c r="D113" s="5">
-        <f t="shared" si="7"/>
-        <v>444.3097009698966</v>
-      </c>
-      <c r="E113" s="5">
-        <f t="shared" si="8"/>
-        <v>13.618306931582122</v>
-      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>351.39400005340576</v>
+        <v>601.38800001144409</v>
       </c>
       <c r="B114">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="C114">
         <v>500</v>
       </c>
-      <c r="D114" s="5">
-        <f t="shared" si="7"/>
-        <v>449.28011789480917</v>
-      </c>
-      <c r="E114" s="5">
-        <f t="shared" si="8"/>
-        <v>5.1989376142289832</v>
-      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>356.39200019836426</v>
+        <v>606.39000010490417</v>
       </c>
       <c r="B115">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="C115">
         <v>500</v>
       </c>
-      <c r="D115" s="5">
-        <f t="shared" si="7"/>
-        <v>448.28603450982666</v>
-      </c>
-      <c r="E115" s="5">
-        <f t="shared" si="8"/>
-        <v>18.370091819425088</v>
-      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>361.39200019836426</v>
+        <v>611.38700008392334</v>
       </c>
       <c r="B116">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="C116">
         <v>500</v>
       </c>
-      <c r="D116" s="5">
-        <f t="shared" si="7"/>
-        <v>445.3037843548791</v>
-      </c>
-      <c r="E116" s="5">
-        <f t="shared" si="8"/>
-        <v>13.66201009523652</v>
-      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>366.39000010490417</v>
+        <v>616.39800000190735</v>
       </c>
       <c r="B117">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="C117">
         <v>500</v>
       </c>
-      <c r="D117" s="5">
-        <f t="shared" si="7"/>
-        <v>450.27420127979167</v>
-      </c>
-      <c r="E117" s="5">
-        <f t="shared" si="8"/>
-        <v>18.268796580172737</v>
-      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>371.38600015640259</v>
+        <v>621.39000010490417</v>
       </c>
       <c r="B118">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="C118">
         <v>500</v>
       </c>
-      <c r="D118" s="5">
-        <f t="shared" si="7"/>
-        <v>447.29195112484416</v>
-      </c>
-      <c r="E118" s="5">
-        <f t="shared" si="8"/>
-        <v>0.50133320960944905</v>
-      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>376.39200019836426</v>
+        <v>626.38800001144409</v>
       </c>
       <c r="B119">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="C119">
         <v>500</v>
       </c>
-      <c r="D119" s="5">
-        <f t="shared" si="7"/>
-        <v>449.28011789480917</v>
-      </c>
-      <c r="E119" s="5">
-        <f t="shared" si="8"/>
-        <v>7.3977586661373227</v>
-      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>381.39000010490417</v>
+        <v>631.39300012588501</v>
       </c>
       <c r="B120">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="C120">
         <v>500</v>
       </c>
-      <c r="D120" s="5">
-        <f t="shared" si="7"/>
-        <v>453.25645143473918</v>
-      </c>
-      <c r="E120" s="5">
-        <f t="shared" si="8"/>
-        <v>0.55286446890142926</v>
-      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>386.38700008392334</v>
+        <v>636.39600014686584</v>
       </c>
       <c r="B121">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="C121">
         <v>500</v>
       </c>
-      <c r="D121" s="5">
-        <f t="shared" si="7"/>
-        <v>455.24461820470418</v>
-      </c>
-      <c r="E121" s="5">
-        <f t="shared" si="8"/>
-        <v>18.01678370370615</v>
-      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>391.38800001144409</v>
+        <v>641.38700008392334</v>
       </c>
       <c r="B122">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="C122">
         <v>500</v>
       </c>
-      <c r="D122" s="5">
-        <f t="shared" si="7"/>
-        <v>452.26236804975667</v>
-      </c>
-      <c r="E122" s="5">
-        <f t="shared" si="8"/>
-        <v>0.5441008940197728</v>
-      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>396.38499999046326</v>
+        <v>646.39400005340576</v>
       </c>
       <c r="B123">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="C123">
         <v>500</v>
       </c>
-      <c r="D123" s="5">
-        <f t="shared" si="7"/>
-        <v>454.25053481972168</v>
-      </c>
-      <c r="E123" s="5">
-        <f t="shared" si="8"/>
-        <v>1.5638373353363322</v>
-      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>401.38700008392334</v>
+        <v>651.39200019836426</v>
       </c>
       <c r="B124">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="C124">
         <v>500</v>
       </c>
-      <c r="D124" s="5">
-        <f t="shared" si="7"/>
-        <v>454.25053481972168</v>
-      </c>
-      <c r="E124" s="5">
-        <f t="shared" si="8"/>
-        <v>3.0606284170062583</v>
-      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>406.38900017738342</v>
+        <v>656.38700008392334</v>
       </c>
       <c r="B125">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="C125">
         <v>500</v>
       </c>
-      <c r="D125" s="5">
-        <f t="shared" si="7"/>
-        <v>457.23278497466924</v>
-      </c>
-      <c r="E125" s="5">
-        <f t="shared" si="8"/>
-        <v>17.916468641785709</v>
-      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>411.39300012588501</v>
+        <v>661.39100003242493</v>
       </c>
       <c r="B126">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="C126">
         <v>500</v>
       </c>
-      <c r="D126" s="5">
-        <f t="shared" si="7"/>
-        <v>454.25053481972168</v>
-      </c>
-      <c r="E126" s="5">
-        <f t="shared" si="8"/>
-        <v>3.0606284170062583</v>
-      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>416.38199996948242</v>
+        <v>666.38800001144409</v>
       </c>
       <c r="B127">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="C127">
         <v>500</v>
       </c>
-      <c r="D127" s="5">
-        <f t="shared" si="7"/>
-        <v>457.23278497466924</v>
-      </c>
-      <c r="E127" s="5">
-        <f t="shared" si="8"/>
-        <v>3.1230489457547859</v>
-      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>421.3840000629425</v>
+        <v>671.39400005340576</v>
       </c>
       <c r="B128">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="C128">
         <v>500</v>
       </c>
-      <c r="D128" s="5">
-        <f t="shared" si="7"/>
-        <v>460.21503512961675</v>
-      </c>
-      <c r="E128" s="5">
-        <f t="shared" si="8"/>
-        <v>4.6240106969293086E-2</v>
-      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>426.38499999046326</v>
+        <v>676.38499999046326</v>
       </c>
       <c r="B129">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="C129">
         <v>500</v>
       </c>
-      <c r="D129" s="5">
-        <f t="shared" si="7"/>
-        <v>461.20911851459925</v>
-      </c>
-      <c r="E129" s="5">
-        <f t="shared" si="8"/>
-        <v>3.2072564947511824</v>
-      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>431.38199996948242</v>
+        <v>681.38900017738342</v>
       </c>
       <c r="B130">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="C130">
         <v>500</v>
       </c>
-      <c r="D130" s="5">
-        <f t="shared" si="7"/>
-        <v>464.19136866954676</v>
-      </c>
-      <c r="E130" s="5">
-        <f t="shared" si="8"/>
-        <v>96.209248576748863</v>
-      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>436.3840000629425</v>
+        <v>686.38499999046326</v>
       </c>
       <c r="B131">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="C131">
         <v>500</v>
       </c>
-      <c r="D131" s="5">
-        <f t="shared" si="7"/>
-        <v>475.1262859043544</v>
-      </c>
-      <c r="E131" s="5">
-        <f t="shared" si="8"/>
-        <v>50.783950790600265</v>
-      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>441.39000010490417</v>
+        <v>691.39000010490417</v>
       </c>
       <c r="B132">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="C132">
         <v>500</v>
       </c>
-      <c r="D132" s="5">
-        <f t="shared" si="7"/>
-        <v>469.16178559445933</v>
-      </c>
-      <c r="E132" s="5">
-        <f t="shared" si="8"/>
-        <v>17.320459334249211</v>
-      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>446.38600015640259</v>
+        <v>696.38800001144409</v>
       </c>
       <c r="B133">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="C133">
         <v>500</v>
       </c>
-      <c r="D133" s="5">
-        <f t="shared" si="7"/>
-        <v>466.17953543951182</v>
-      </c>
-      <c r="E133" s="5">
-        <f t="shared" si="8"/>
-        <v>7.9550203369697607</v>
-      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>451.3840000629425</v>
+        <v>701.3970000743866</v>
       </c>
       <c r="B134">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C134">
         <v>500</v>
       </c>
-      <c r="D134" s="5">
-        <f t="shared" si="7"/>
-        <v>470.15586897944183</v>
-      </c>
-      <c r="E134" s="5">
-        <f t="shared" si="8"/>
-        <v>3.4008192209849022</v>
-      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>456.39000010490417</v>
+        <v>706.39300012588501</v>
       </c>
       <c r="B135">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="C135">
         <v>500</v>
       </c>
-      <c r="D135" s="5">
-        <f t="shared" si="7"/>
-        <v>473.13811913438934</v>
-      </c>
-      <c r="E135" s="5">
-        <f t="shared" si="8"/>
-        <v>3.4666003577270934</v>
-      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>461.38600015640259</v>
+        <v>711.39300012588501</v>
       </c>
       <c r="B136">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="C136">
         <v>500</v>
       </c>
-      <c r="D136" s="5">
-        <f t="shared" si="7"/>
-        <v>476.12036928933691</v>
-      </c>
-      <c r="E136" s="5">
-        <f t="shared" si="8"/>
-        <v>0.77375018714165877</v>
-      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>466.38199996948242</v>
+        <v>716.39000010490417</v>
       </c>
       <c r="B137">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="C137">
         <v>500</v>
       </c>
-      <c r="D137" s="5">
-        <f t="shared" si="7"/>
-        <v>478.10853605930191</v>
-      </c>
-      <c r="E137" s="5">
-        <f t="shared" si="8"/>
-        <v>1.2288521947726117</v>
-      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>471.39100003242493</v>
+        <v>721.38800001144409</v>
       </c>
       <c r="B138">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="C138">
         <v>500</v>
       </c>
-      <c r="D138" s="5">
-        <f t="shared" si="7"/>
-        <v>478.10853605930191</v>
-      </c>
-      <c r="E138" s="5">
-        <f t="shared" si="8"/>
-        <v>3.5776358389611409</v>
-      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>476.38800001144409</v>
+        <v>726.39300012588501</v>
       </c>
       <c r="B139">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="C139">
         <v>500</v>
       </c>
-      <c r="D139" s="5">
-        <f t="shared" si="7"/>
-        <v>481.09078621424942</v>
-      </c>
-      <c r="E139" s="5">
-        <f t="shared" si="8"/>
-        <v>16.734531850693099</v>
-      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>481.38800001144409</v>
+        <v>731.39100003242493</v>
       </c>
       <c r="B140">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="C140">
         <v>500</v>
       </c>
-      <c r="D140" s="5">
-        <f t="shared" si="7"/>
-        <v>478.10853605930191</v>
-      </c>
-      <c r="E140" s="5">
-        <f t="shared" si="8"/>
-        <v>0.79470795756496448</v>
-      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>486.38499999046326</v>
+        <v>736.40000009536743</v>
       </c>
       <c r="B141">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="C141">
         <v>500</v>
       </c>
-      <c r="D141" s="5">
-        <f t="shared" si="7"/>
-        <v>480.09670282926692</v>
-      </c>
-      <c r="E141" s="5">
-        <f t="shared" si="8"/>
-        <v>0.81594577865439255</v>
-      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>491.39100003242493</v>
+        <v>741.3970000743866</v>
       </c>
       <c r="B142">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C142">
         <v>500</v>
       </c>
-      <c r="D142" s="5">
-        <f t="shared" si="7"/>
-        <v>482.08486959923192</v>
-      </c>
-      <c r="E142" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1769420473376315</v>
-      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>496.38900017738342</v>
+        <v>746.40300011634827</v>
       </c>
       <c r="B143">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="C143">
         <v>500</v>
       </c>
-      <c r="D143" s="5">
-        <f t="shared" si="7"/>
-        <v>482.08486959923192</v>
-      </c>
-      <c r="E143" s="5">
-        <f t="shared" si="8"/>
-        <v>16.686159642729166</v>
-      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>501.42799997329712</v>
+        <v>751.40000009536743</v>
       </c>
       <c r="B144">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="C144">
         <v>500</v>
       </c>
-      <c r="D144" s="5">
-        <f t="shared" si="7"/>
-        <v>479.10261944428441</v>
-      </c>
-      <c r="E144" s="5">
-        <f t="shared" si="8"/>
-        <v>0.80529186177641321</v>
-      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>506.38700008392334</v>
+        <v>756.3970000743866</v>
       </c>
       <c r="B145">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="C145">
         <v>500</v>
       </c>
-      <c r="D145" s="5">
-        <f t="shared" si="7"/>
-        <v>481.09078621424942</v>
-      </c>
-      <c r="E145" s="5">
-        <f t="shared" si="8"/>
-        <v>3.6450972797000634</v>
-      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>511.39400005340576</v>
+        <v>761.40200018882751</v>
       </c>
       <c r="B146">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="C146">
         <v>500</v>
       </c>
-      <c r="D146" s="5">
-        <f t="shared" si="7"/>
-        <v>484.07303636919698</v>
-      </c>
-      <c r="E146" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1514070496194466</v>
-      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>516.38900017738342</v>
+        <v>766.40499997138977</v>
       </c>
       <c r="B147">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="C147">
         <v>500</v>
       </c>
-      <c r="D147" s="5">
-        <f t="shared" si="7"/>
-        <v>484.07303636919698</v>
-      </c>
-      <c r="E147" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1514070496194466</v>
-      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>521.38600015640259</v>
+        <v>771.39800000190735</v>
       </c>
       <c r="B148">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="C148">
         <v>500</v>
       </c>
-      <c r="D148" s="5">
-        <f t="shared" si="7"/>
-        <v>484.07303636919698</v>
-      </c>
-      <c r="E148" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1514070496194466</v>
-      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>526.3840000629425</v>
+        <v>776.40700006484985</v>
       </c>
       <c r="B149">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="C149">
         <v>500</v>
       </c>
-      <c r="D149" s="5">
-        <f t="shared" si="7"/>
-        <v>484.07303636919698</v>
-      </c>
-      <c r="E149" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1514070496194466</v>
-      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>531.38900017738342</v>
+        <v>781.40000009536743</v>
       </c>
       <c r="B150">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="C150">
         <v>500</v>
       </c>
-      <c r="D150" s="5">
-        <f t="shared" si="7"/>
-        <v>484.07303636919698</v>
-      </c>
-      <c r="E150" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1514070496194466</v>
-      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>536.39499998092651</v>
+        <v>786.40400004386902</v>
       </c>
       <c r="B151">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="C151">
         <v>500</v>
       </c>
-      <c r="D151" s="5">
-        <f t="shared" si="7"/>
-        <v>484.07303636919698</v>
-      </c>
-      <c r="E151" s="5">
-        <f t="shared" si="8"/>
-        <v>5.3343112254781817E-3</v>
-      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>541.39300012588501</v>
+        <v>791.40000009536743</v>
       </c>
       <c r="B152">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="C152">
         <v>500</v>
       </c>
-      <c r="D152" s="5">
-        <f t="shared" si="7"/>
-        <v>485.06711975417949</v>
-      </c>
-      <c r="E152" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1387445697600884</v>
-      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>546.38900017738342</v>
+        <v>796.40499997138977</v>
       </c>
       <c r="B153">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="C153">
         <v>500</v>
       </c>
-      <c r="D153" s="5">
-        <f t="shared" si="7"/>
-        <v>485.06711975417949</v>
-      </c>
-      <c r="E153" s="5">
-        <f t="shared" si="8"/>
-        <v>0.87026555304214115</v>
-      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>551.39100003242493</v>
+        <v>801.40400004386902</v>
       </c>
       <c r="B154">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="C154">
         <v>500</v>
       </c>
-      <c r="D154" s="5">
-        <f t="shared" si="7"/>
-        <v>487.05528652414449</v>
-      </c>
-      <c r="E154" s="5">
-        <f t="shared" si="8"/>
-        <v>3.7819105031740117</v>
-      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>556.38800001144409</v>
+        <v>806.40100002288818</v>
       </c>
       <c r="B155">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="C155">
         <v>500</v>
       </c>
-      <c r="D155" s="5">
-        <f t="shared" si="7"/>
-        <v>490.037536679092</v>
-      </c>
-      <c r="E155" s="5">
-        <f t="shared" si="8"/>
-        <v>0.92633564409325631</v>
-      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>561.38600015640259</v>
+        <v>811.39800000190735</v>
       </c>
       <c r="B156">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="C156">
         <v>500</v>
       </c>
-      <c r="D156" s="5">
-        <f t="shared" si="7"/>
-        <v>492.02570344905706</v>
-      </c>
-      <c r="E156" s="5">
-        <f t="shared" si="8"/>
-        <v>25.257695157864045</v>
-      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>566.39200019836426</v>
+        <v>816.39499998092651</v>
       </c>
       <c r="B157">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="C157">
         <v>500</v>
       </c>
-      <c r="D157" s="5">
-        <f t="shared" si="7"/>
-        <v>488.04936990912699</v>
-      </c>
-      <c r="E157" s="5">
-        <f t="shared" si="8"/>
-        <v>15.607478114911251</v>
-      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>571.39600014686584</v>
+        <v>821.40100002288818</v>
       </c>
       <c r="B158">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="C158">
         <v>500</v>
       </c>
-      <c r="D158" s="5">
-        <f t="shared" si="7"/>
-        <v>493.01978683403956</v>
-      </c>
-      <c r="E158" s="5">
-        <f t="shared" si="8"/>
-        <v>1.039965186880438</v>
-      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>576.39400005340576</v>
+        <v>826.39800000190735</v>
       </c>
       <c r="B159">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="C159">
         <v>500</v>
       </c>
-      <c r="D159" s="5">
-        <f t="shared" si="7"/>
-        <v>493.01978683403956</v>
-      </c>
-      <c r="E159" s="5">
-        <f t="shared" si="8"/>
-        <v>3.9151880130926372E-4</v>
-      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>581.39200019836426</v>
+        <v>831.39400005340576</v>
       </c>
       <c r="B160">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="C160">
         <v>500</v>
       </c>
-      <c r="D160" s="5">
-        <f t="shared" si="7"/>
-        <v>494.01387021902207</v>
-      </c>
-      <c r="E160" s="5">
-        <f t="shared" si="8"/>
-        <v>0.97245194493158615</v>
-      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>586.38700008392334</v>
+        <v>836.4060001373291</v>
       </c>
       <c r="B161">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="C161">
         <v>500</v>
       </c>
-      <c r="D161" s="5">
-        <f t="shared" si="7"/>
-        <v>496.00203698898707</v>
-      </c>
-      <c r="E161" s="5">
-        <f t="shared" si="8"/>
-        <v>15.983708237427557</v>
-      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>591.39000010490417</v>
+        <v>841.45000004768372</v>
       </c>
       <c r="B162">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="C162">
         <v>500</v>
       </c>
-      <c r="D162" s="5">
-        <f t="shared" si="7"/>
-        <v>500.97245391389964</v>
-      </c>
-      <c r="E162" s="5">
-        <f t="shared" si="8"/>
-        <v>3.8905744424580164</v>
-      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>596.3970000743866</v>
+        <v>846.40499997138977</v>
       </c>
       <c r="B163">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="C163">
         <v>500</v>
       </c>
-      <c r="D163" s="5">
-        <f t="shared" si="7"/>
-        <v>499.97837052891714</v>
-      </c>
-      <c r="E163" s="5">
-        <f t="shared" si="8"/>
-        <v>3.9139499496878818</v>
-      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>601.38800001144409</v>
+        <v>851.40100002288818</v>
       </c>
       <c r="B164">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="C164">
         <v>500</v>
       </c>
-      <c r="D164" s="5">
-        <f t="shared" si="7"/>
-        <v>498.98428714393458</v>
-      </c>
-      <c r="E164" s="5">
-        <f t="shared" si="8"/>
-        <v>25.157375454499935</v>
-      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>606.39000010490417</v>
+        <v>856.40700006484985</v>
       </c>
       <c r="B165">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="C165">
         <v>500</v>
       </c>
-      <c r="D165" s="5">
-        <f t="shared" si="7"/>
-        <v>504.94878745382965</v>
-      </c>
-      <c r="E165" s="5">
-        <f t="shared" si="8"/>
-        <v>3.7977725402038596</v>
-      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>611.38700008392334</v>
+        <v>861.41300010681152</v>
       </c>
       <c r="B166">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="C166">
         <v>500</v>
       </c>
-      <c r="D166" s="5">
-        <f t="shared" si="7"/>
-        <v>503.95470406884715</v>
-      </c>
-      <c r="E166" s="5">
-        <f t="shared" si="8"/>
-        <v>4.1832354459904044</v>
-      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>616.39800000190735</v>
+        <v>866.41300010681152</v>
       </c>
       <c r="B167">
-        <v>503</v>
+        <v>549</v>
       </c>
       <c r="C167">
         <v>500</v>
       </c>
-      <c r="D167" s="5">
-        <f t="shared" si="7"/>
-        <v>506.93695422379466</v>
-      </c>
-      <c r="E167" s="5">
-        <f t="shared" si="8"/>
-        <v>15.499608560254595</v>
-      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>621.39000010490417</v>
+        <v>871.41100001335144</v>
       </c>
       <c r="B168">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="C168">
         <v>500</v>
       </c>
-      <c r="D168" s="5">
-        <f t="shared" si="7"/>
-        <v>503.95470406884715</v>
-      </c>
-      <c r="E168" s="5">
-        <f t="shared" si="8"/>
-        <v>9.2738273082961058</v>
-      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>626.38800001144409</v>
+        <v>876.41300010681152</v>
       </c>
       <c r="B169">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="C169">
         <v>500</v>
       </c>
-      <c r="D169" s="5">
-        <f t="shared" si="7"/>
-        <v>507.93103760877716</v>
-      </c>
-      <c r="E169" s="5">
-        <f t="shared" si="8"/>
-        <v>9.4185301587402108</v>
-      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>631.39300012588501</v>
+        <v>881.40900015830994</v>
       </c>
       <c r="B170">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="C170">
         <v>500</v>
       </c>
-      <c r="D170" s="5">
-        <f t="shared" si="7"/>
-        <v>511.90737114870723</v>
-      </c>
-      <c r="E170" s="5">
-        <f t="shared" si="8"/>
-        <v>8.4528069963351822</v>
-      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>636.39600014686584</v>
+        <v>886.41000008583069</v>
       </c>
       <c r="B171">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="C171">
         <v>500</v>
       </c>
-      <c r="D171" s="5">
-        <f t="shared" si="7"/>
-        <v>509.91920437874222</v>
-      </c>
-      <c r="E171" s="5">
-        <f t="shared" si="8"/>
-        <v>15.360162962352208</v>
-      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>641.38700008392334</v>
+        <v>891.41400003433228</v>
       </c>
       <c r="B172">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="C172">
         <v>500</v>
       </c>
-      <c r="D172" s="5">
-        <f t="shared" si="7"/>
-        <v>506.93695422379466</v>
-      </c>
-      <c r="E172" s="5">
-        <f t="shared" si="8"/>
-        <v>4.2561578747187037</v>
-      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>646.39400005340576</v>
+        <v>896.41500020027161</v>
       </c>
       <c r="B173">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="C173">
         <v>500</v>
       </c>
-      <c r="D173" s="5">
-        <f t="shared" si="7"/>
-        <v>509.91920437874222</v>
-      </c>
-      <c r="E173" s="5">
-        <f t="shared" si="8"/>
-        <v>0.8449366898988746</v>
-      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>651.39200019836426</v>
+        <v>901.41200017929077</v>
       </c>
       <c r="B174">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="C174">
         <v>500</v>
       </c>
-      <c r="D174" s="5">
-        <f t="shared" ref="D174:D237" si="9">(B173*$G$44)+(C173*$G$45)</f>
-        <v>509.91920437874222</v>
-      </c>
-      <c r="E174" s="5">
-        <f t="shared" ref="E174:E237" si="10">(B174-D174)^2</f>
-        <v>1.168119174929986</v>
-      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>656.38700008392334</v>
+        <v>906.42200016975403</v>
       </c>
       <c r="B175">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="C175">
         <v>500</v>
       </c>
-      <c r="D175" s="5">
-        <f t="shared" si="9"/>
-        <v>511.90737114870723</v>
-      </c>
-      <c r="E175" s="5">
-        <f t="shared" si="10"/>
-        <v>8.580104091818589E-3</v>
-      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>661.39100003242493</v>
+        <v>911.4060001373291</v>
       </c>
       <c r="B176">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="C176">
         <v>500</v>
       </c>
-      <c r="D176" s="5">
-        <f t="shared" si="9"/>
-        <v>512.90145453368973</v>
-      </c>
-      <c r="E176" s="5">
-        <f t="shared" si="10"/>
-        <v>3.6155293436892282</v>
-      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>666.38800001144409</v>
+        <v>916.41300010681152</v>
       </c>
       <c r="B177">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="C177">
         <v>500</v>
       </c>
-      <c r="D177" s="5">
-        <f t="shared" si="9"/>
-        <v>511.90737114870723</v>
-      </c>
-      <c r="E177" s="5">
-        <f t="shared" si="10"/>
-        <v>4.3790955092629096</v>
-      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>671.39400005340576</v>
+        <v>921.40799999237061</v>
       </c>
       <c r="B178">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="C178">
         <v>500</v>
       </c>
-      <c r="D178" s="5">
-        <f t="shared" si="9"/>
-        <v>514.88962130365474</v>
-      </c>
-      <c r="E178" s="5">
-        <f t="shared" si="10"/>
-        <v>15.129153885844762</v>
-      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>676.38499999046326</v>
+        <v>926.41500020027161</v>
       </c>
       <c r="B179">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="C179">
         <v>500</v>
       </c>
-      <c r="D179" s="5">
-        <f t="shared" si="9"/>
-        <v>511.90737114870723</v>
-      </c>
-      <c r="E179" s="5">
-        <f t="shared" si="10"/>
-        <v>0.82332240150627334</v>
-      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>681.38900017738342</v>
+        <v>931.41200017929077</v>
       </c>
       <c r="B180">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="C180">
         <v>500</v>
       </c>
-      <c r="D180" s="5">
-        <f t="shared" si="9"/>
-        <v>511.90737114870723</v>
-      </c>
-      <c r="E180" s="5">
-        <f t="shared" si="10"/>
-        <v>8.580104091818589E-3</v>
-      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>686.38499999046326</v>
+        <v>936.41200017929077</v>
       </c>
       <c r="B181">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="C181">
         <v>500</v>
       </c>
-      <c r="D181" s="5">
-        <f t="shared" si="9"/>
-        <v>512.90145453368973</v>
-      </c>
-      <c r="E181" s="5">
-        <f t="shared" si="10"/>
-        <v>0.81262027630976841</v>
-      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>691.39000010490417</v>
+        <v>941.4060001373291</v>
       </c>
       <c r="B182">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="C182">
         <v>500</v>
       </c>
-      <c r="D182" s="5">
-        <f t="shared" si="9"/>
-        <v>512.90145453368973</v>
-      </c>
-      <c r="E182" s="5">
-        <f t="shared" si="10"/>
-        <v>9.7112089303085705E-3</v>
-      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>696.38800001144409</v>
+        <v>946.41200017929077</v>
       </c>
       <c r="B183">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="C183">
         <v>500</v>
       </c>
-      <c r="D183" s="5">
-        <f t="shared" si="9"/>
-        <v>513.89553791867218</v>
-      </c>
-      <c r="E183" s="5">
-        <f t="shared" si="10"/>
-        <v>0.8019881637796924</v>
-      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>701.3970000743866</v>
+        <v>951.42200016975403</v>
       </c>
       <c r="B184">
-        <v>512</v>
+        <v>566</v>
       </c>
       <c r="C184">
         <v>500</v>
       </c>
-      <c r="D184" s="5">
-        <f t="shared" si="9"/>
-        <v>513.89553791867218</v>
-      </c>
-      <c r="E184" s="5">
-        <f t="shared" si="10"/>
-        <v>3.5930640011240436</v>
-      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>706.39300012588501</v>
+        <v>956.41000008583069</v>
       </c>
       <c r="B185">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="C185">
         <v>500</v>
       </c>
-      <c r="D185" s="5">
-        <f t="shared" si="9"/>
-        <v>512.90145453368973</v>
-      </c>
-      <c r="E185" s="5">
-        <f t="shared" si="10"/>
-        <v>4.4038930741713891</v>
-      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>711.39300012588501</v>
+        <v>961.41200017929077</v>
       </c>
       <c r="B186">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="C186">
         <v>500</v>
       </c>
-      <c r="D186" s="5">
-        <f t="shared" si="9"/>
-        <v>515.88370468863718</v>
-      </c>
-      <c r="E186" s="5">
-        <f t="shared" si="10"/>
-        <v>0.78093397671933684</v>
-      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>716.39000010490417</v>
+        <v>966.41799998283386</v>
       </c>
       <c r="B187">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="C187">
         <v>500</v>
       </c>
-      <c r="D187" s="5">
-        <f t="shared" si="9"/>
-        <v>515.88370468863718</v>
-      </c>
-      <c r="E187" s="5">
-        <f t="shared" si="10"/>
-        <v>1.3524599444975046E-2</v>
-      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>721.38800001144409</v>
+        <v>971.41200017929077</v>
       </c>
       <c r="B188">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="C188">
         <v>500</v>
       </c>
-      <c r="D188" s="5">
-        <f t="shared" si="9"/>
-        <v>516.87778807361974</v>
-      </c>
-      <c r="E188" s="5">
-        <f t="shared" si="10"/>
-        <v>8.2816641966680162</v>
-      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>726.39300012588501</v>
+        <v>976.41200017929077</v>
       </c>
       <c r="B189">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="C189">
         <v>500</v>
       </c>
-      <c r="D189" s="5">
-        <f t="shared" si="9"/>
-        <v>514.88962130365474</v>
-      </c>
-      <c r="E189" s="5">
-        <f t="shared" si="10"/>
-        <v>102.21975738351217</v>
-      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>731.39100003242493</v>
+        <v>981.40900015830994</v>
       </c>
       <c r="B190">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="C190">
         <v>500</v>
       </c>
-      <c r="D190" s="5">
-        <f t="shared" si="9"/>
-        <v>525.82453853846232</v>
-      </c>
-      <c r="E190" s="5">
-        <f t="shared" si="10"/>
-        <v>0.67986380140957958</v>
-      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>736.40000009536743</v>
+        <v>986.41600012779236</v>
       </c>
       <c r="B191">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="C191">
         <v>500</v>
       </c>
-      <c r="D191" s="5">
-        <f t="shared" si="9"/>
-        <v>525.82453853846232</v>
-      </c>
-      <c r="E191" s="5">
-        <f t="shared" si="10"/>
-        <v>46.574326262957428</v>
-      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>741.3970000743866</v>
+        <v>991.41000008583069</v>
       </c>
       <c r="B192">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="C192">
         <v>500</v>
       </c>
-      <c r="D192" s="5">
-        <f t="shared" si="9"/>
-        <v>519.8600382285673</v>
-      </c>
-      <c r="E192" s="5">
-        <f t="shared" si="10"/>
-        <v>9.8593599260587474</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>746.40300011634827</v>
-      </c>
-      <c r="B193">
-        <v>520</v>
-      </c>
-      <c r="C193">
-        <v>500</v>
-      </c>
-      <c r="D193" s="5">
-        <f t="shared" si="9"/>
-        <v>523.83637176849732</v>
-      </c>
-      <c r="E193" s="5">
-        <f t="shared" si="10"/>
-        <v>14.717748346123219</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>751.40000009536743</v>
-      </c>
-      <c r="B194">
-        <v>520</v>
-      </c>
-      <c r="C194">
-        <v>500</v>
-      </c>
-      <c r="D194" s="5">
-        <f t="shared" si="9"/>
-        <v>520.85412161354975</v>
-      </c>
-      <c r="E194" s="5">
-        <f t="shared" si="10"/>
-        <v>0.72952373073282961</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>756.3970000743866</v>
-      </c>
-      <c r="B195">
-        <v>520</v>
-      </c>
-      <c r="C195">
-        <v>500</v>
-      </c>
-      <c r="D195" s="5">
-        <f t="shared" si="9"/>
-        <v>520.85412161354975</v>
-      </c>
-      <c r="E195" s="5">
-        <f t="shared" si="10"/>
-        <v>0.72952373073282961</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>761.40200018882751</v>
-      </c>
-      <c r="B196">
-        <v>524</v>
-      </c>
-      <c r="C196">
-        <v>500</v>
-      </c>
-      <c r="D196" s="5">
-        <f t="shared" si="9"/>
-        <v>520.85412161354975</v>
-      </c>
-      <c r="E196" s="5">
-        <f t="shared" si="10"/>
-        <v>9.8965508223348237</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>766.40499997138977</v>
-      </c>
-      <c r="B197">
-        <v>536</v>
-      </c>
-      <c r="C197">
-        <v>500</v>
-      </c>
-      <c r="D197" s="5">
-        <f t="shared" si="9"/>
-        <v>524.83045515347987</v>
-      </c>
-      <c r="E197" s="5">
-        <f t="shared" si="10"/>
-        <v>124.75873207842429</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>771.39800000190735</v>
-      </c>
-      <c r="B198">
-        <v>526</v>
-      </c>
-      <c r="C198">
-        <v>500</v>
-      </c>
-      <c r="D198" s="5">
-        <f t="shared" si="9"/>
-        <v>536.75945577326991</v>
-      </c>
-      <c r="E198" s="5">
-        <f t="shared" si="10"/>
-        <v>115.76588853695111</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>776.40700006484985</v>
-      </c>
-      <c r="B199">
-        <v>534</v>
-      </c>
-      <c r="C199">
-        <v>500</v>
-      </c>
-      <c r="D199" s="5">
-        <f t="shared" si="9"/>
-        <v>526.81862192344488</v>
-      </c>
-      <c r="E199" s="5">
-        <f t="shared" si="10"/>
-        <v>51.572191078426513</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>781.40000009536743</v>
-      </c>
-      <c r="B200">
-        <v>539</v>
-      </c>
-      <c r="C200">
-        <v>500</v>
-      </c>
-      <c r="D200" s="5">
-        <f t="shared" si="9"/>
-        <v>534.7712890033049</v>
-      </c>
-      <c r="E200" s="5">
-        <f t="shared" si="10"/>
-        <v>17.881996693570059</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>786.40400004386902</v>
-      </c>
-      <c r="B201">
-        <v>541</v>
-      </c>
-      <c r="C201">
-        <v>500</v>
-      </c>
-      <c r="D201" s="5">
-        <f t="shared" si="9"/>
-        <v>539.74170592821747</v>
-      </c>
-      <c r="E201" s="5">
-        <f t="shared" si="10"/>
-        <v>1.5833039710830574</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>791.40000009536743</v>
-      </c>
-      <c r="B202">
-        <v>541</v>
-      </c>
-      <c r="C202">
-        <v>500</v>
-      </c>
-      <c r="D202" s="5">
-        <f t="shared" si="9"/>
-        <v>541.72987269818248</v>
-      </c>
-      <c r="E202" s="5">
-        <f t="shared" si="10"/>
-        <v>0.53271415555216728</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>796.40499997138977</v>
-      </c>
-      <c r="B203">
-        <v>542</v>
-      </c>
-      <c r="C203">
-        <v>500</v>
-      </c>
-      <c r="D203" s="5">
-        <f t="shared" si="9"/>
-        <v>541.72987269818248</v>
-      </c>
-      <c r="E203" s="5">
-        <f t="shared" si="10"/>
-        <v>7.2968759187215876E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>801.40400004386902</v>
-      </c>
-      <c r="B204">
-        <v>542</v>
-      </c>
-      <c r="C204">
-        <v>500</v>
-      </c>
-      <c r="D204" s="5">
-        <f t="shared" si="9"/>
-        <v>542.72395608316504</v>
-      </c>
-      <c r="E204" s="5">
-        <f t="shared" si="10"/>
-        <v>0.52411241035165923</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>806.40100002288818</v>
-      </c>
-      <c r="B205">
-        <v>542</v>
-      </c>
-      <c r="C205">
-        <v>500</v>
-      </c>
-      <c r="D205" s="5">
-        <f t="shared" si="9"/>
-        <v>542.72395608316504</v>
-      </c>
-      <c r="E205" s="5">
-        <f t="shared" si="10"/>
-        <v>0.52411241035165923</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>811.39800000190735</v>
-      </c>
-      <c r="B206">
-        <v>543</v>
-      </c>
-      <c r="C206">
-        <v>500</v>
-      </c>
-      <c r="D206" s="5">
-        <f t="shared" si="9"/>
-        <v>542.72395608316504</v>
-      </c>
-      <c r="E206" s="5">
-        <f t="shared" si="10"/>
-        <v>7.6200244021589009E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>816.39499998092651</v>
-      </c>
-      <c r="B207">
-        <v>543</v>
-      </c>
-      <c r="C207">
-        <v>500</v>
-      </c>
-      <c r="D207" s="5">
-        <f t="shared" si="9"/>
-        <v>543.71803946814748</v>
-      </c>
-      <c r="E207" s="5">
-        <f t="shared" si="10"/>
-        <v>0.51558067781751715</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>821.40100002288818</v>
-      </c>
-      <c r="B208">
-        <v>546</v>
-      </c>
-      <c r="C208">
-        <v>500</v>
-      </c>
-      <c r="D208" s="5">
-        <f t="shared" si="9"/>
-        <v>543.71803946814748</v>
-      </c>
-      <c r="E208" s="5">
-        <f t="shared" si="10"/>
-        <v>5.2073438689326323</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>826.39800000190735</v>
-      </c>
-      <c r="B209">
-        <v>547</v>
-      </c>
-      <c r="C209">
-        <v>500</v>
-      </c>
-      <c r="D209" s="5">
-        <f t="shared" si="9"/>
-        <v>546.70028962309505</v>
-      </c>
-      <c r="E209" s="5">
-        <f t="shared" si="10"/>
-        <v>8.9826310024509887E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>831.39400005340576</v>
-      </c>
-      <c r="B210">
-        <v>545</v>
-      </c>
-      <c r="C210">
-        <v>500</v>
-      </c>
-      <c r="D210" s="5">
-        <f t="shared" si="9"/>
-        <v>547.69437300807749</v>
-      </c>
-      <c r="E210" s="5">
-        <f t="shared" si="10"/>
-        <v>7.2596459066565489</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>836.4060001373291</v>
-      </c>
-      <c r="B211">
-        <v>545</v>
-      </c>
-      <c r="C211">
-        <v>500</v>
-      </c>
-      <c r="D211" s="5">
-        <f t="shared" si="9"/>
-        <v>545.70620623811249</v>
-      </c>
-      <c r="E211" s="5">
-        <f t="shared" si="10"/>
-        <v>0.49872725074898938</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>841.45000004768372</v>
-      </c>
-      <c r="B212">
-        <v>543</v>
-      </c>
-      <c r="C212">
-        <v>500</v>
-      </c>
-      <c r="D212" s="5">
-        <f t="shared" si="9"/>
-        <v>545.70620623811249</v>
-      </c>
-      <c r="E212" s="5">
-        <f t="shared" si="10"/>
-        <v>7.3235522031989335</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>846.40499997138977</v>
-      </c>
-      <c r="B213">
-        <v>545</v>
-      </c>
-      <c r="C213">
-        <v>500</v>
-      </c>
-      <c r="D213" s="5">
-        <f t="shared" si="9"/>
-        <v>543.71803946814748</v>
-      </c>
-      <c r="E213" s="5">
-        <f t="shared" si="10"/>
-        <v>1.6434228052275937</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>851.40100002288818</v>
-      </c>
-      <c r="B214">
-        <v>543</v>
-      </c>
-      <c r="C214">
-        <v>500</v>
-      </c>
-      <c r="D214" s="5">
-        <f t="shared" si="9"/>
-        <v>545.70620623811249</v>
-      </c>
-      <c r="E214" s="5">
-        <f t="shared" si="10"/>
-        <v>7.3235522031989335</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>856.40700006484985</v>
-      </c>
-      <c r="B215">
-        <v>551</v>
-      </c>
-      <c r="C215">
-        <v>500</v>
-      </c>
-      <c r="D215" s="5">
-        <f t="shared" si="9"/>
-        <v>543.71803946814748</v>
-      </c>
-      <c r="E215" s="5">
-        <f t="shared" si="10"/>
-        <v>53.026949187457824</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>861.41300010681152</v>
-      </c>
-      <c r="B216">
-        <v>550</v>
-      </c>
-      <c r="C216">
-        <v>500</v>
-      </c>
-      <c r="D216" s="5">
-        <f t="shared" si="9"/>
-        <v>551.67070654800762</v>
-      </c>
-      <c r="E216" s="5">
-        <f t="shared" si="10"/>
-        <v>2.791260369555522</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>866.41300010681152</v>
-      </c>
-      <c r="B217">
-        <v>549</v>
-      </c>
-      <c r="C217">
-        <v>500</v>
-      </c>
-      <c r="D217" s="5">
-        <f t="shared" si="9"/>
-        <v>550.67662316302506</v>
-      </c>
-      <c r="E217" s="5">
-        <f t="shared" si="10"/>
-        <v>2.8110652307921429</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>871.41100001335144</v>
-      </c>
-      <c r="B218">
-        <v>546</v>
-      </c>
-      <c r="C218">
-        <v>500</v>
-      </c>
-      <c r="D218" s="5">
-        <f t="shared" si="9"/>
-        <v>549.68253977804261</v>
-      </c>
-      <c r="E218" s="5">
-        <f t="shared" si="10"/>
-        <v>13.561099216866117</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>876.41300010681152</v>
-      </c>
-      <c r="B219">
-        <v>547</v>
-      </c>
-      <c r="C219">
-        <v>500</v>
-      </c>
-      <c r="D219" s="5">
-        <f t="shared" si="9"/>
-        <v>546.70028962309505</v>
-      </c>
-      <c r="E219" s="5">
-        <f t="shared" si="10"/>
-        <v>8.9826310024509887E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>881.40900015830994</v>
-      </c>
-      <c r="B220">
-        <v>549</v>
-      </c>
-      <c r="C220">
-        <v>500</v>
-      </c>
-      <c r="D220" s="5">
-        <f t="shared" si="9"/>
-        <v>547.69437300807749</v>
-      </c>
-      <c r="E220" s="5">
-        <f t="shared" si="10"/>
-        <v>1.7046618420366186</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>886.41000008583069</v>
-      </c>
-      <c r="B221">
-        <v>552</v>
-      </c>
-      <c r="C221">
-        <v>500</v>
-      </c>
-      <c r="D221" s="5">
-        <f t="shared" si="9"/>
-        <v>549.68253977804261</v>
-      </c>
-      <c r="E221" s="5">
-        <f t="shared" si="10"/>
-        <v>5.3706218803547952</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>891.41400003433228</v>
-      </c>
-      <c r="B222">
-        <v>549</v>
-      </c>
-      <c r="C222">
-        <v>500</v>
-      </c>
-      <c r="D222" s="5">
-        <f t="shared" si="9"/>
-        <v>552.66478993299006</v>
-      </c>
-      <c r="E222" s="5">
-        <f t="shared" si="10"/>
-        <v>13.430685252945295</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>896.41500020027161</v>
-      </c>
-      <c r="B223">
-        <v>553</v>
-      </c>
-      <c r="C223">
-        <v>500</v>
-      </c>
-      <c r="D223" s="5">
-        <f t="shared" si="9"/>
-        <v>549.68253977804261</v>
-      </c>
-      <c r="E223" s="5">
-        <f t="shared" si="10"/>
-        <v>11.005542324269575</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>901.41200017929077</v>
-      </c>
-      <c r="B224">
-        <v>551</v>
-      </c>
-      <c r="C224">
-        <v>500</v>
-      </c>
-      <c r="D224" s="5">
-        <f t="shared" si="9"/>
-        <v>553.65887331797262</v>
-      </c>
-      <c r="E224" s="5">
-        <f t="shared" si="10"/>
-        <v>7.0696073210267318</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>906.42200016975403</v>
-      </c>
-      <c r="B225">
-        <v>560</v>
-      </c>
-      <c r="C225">
-        <v>500</v>
-      </c>
-      <c r="D225" s="5">
-        <f t="shared" si="9"/>
-        <v>551.67070654800762</v>
-      </c>
-      <c r="E225" s="5">
-        <f t="shared" si="10"/>
-        <v>69.37712940940321</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>911.4060001373291</v>
-      </c>
-      <c r="B226">
-        <v>548</v>
-      </c>
-      <c r="C226">
-        <v>500</v>
-      </c>
-      <c r="D226" s="5">
-        <f t="shared" si="9"/>
-        <v>560.6174570128502</v>
-      </c>
-      <c r="E226" s="5">
-        <f t="shared" si="10"/>
-        <v>159.20022147112257</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>916.41300010681152</v>
-      </c>
-      <c r="B227">
-        <v>558</v>
-      </c>
-      <c r="C227">
-        <v>500</v>
-      </c>
-      <c r="D227" s="5">
-        <f t="shared" si="9"/>
-        <v>548.68845639306005</v>
-      </c>
-      <c r="E227" s="5">
-        <f t="shared" si="10"/>
-        <v>86.704844343944245</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>921.40799999237061</v>
-      </c>
-      <c r="B228">
-        <v>564</v>
-      </c>
-      <c r="C228">
-        <v>500</v>
-      </c>
-      <c r="D228" s="5">
-        <f t="shared" si="9"/>
-        <v>558.62929024288519</v>
-      </c>
-      <c r="E228" s="5">
-        <f t="shared" si="10"/>
-        <v>28.844523295168219</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>926.41500020027161</v>
-      </c>
-      <c r="B229">
-        <v>563</v>
-      </c>
-      <c r="C229">
-        <v>500</v>
-      </c>
-      <c r="D229" s="5">
-        <f t="shared" si="9"/>
-        <v>564.59379055278021</v>
-      </c>
-      <c r="E229" s="5">
-        <f t="shared" si="10"/>
-        <v>2.5401683261314343</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>931.41200017929077</v>
-      </c>
-      <c r="B230">
-        <v>554</v>
-      </c>
-      <c r="C230">
-        <v>500</v>
-      </c>
-      <c r="D230" s="5">
-        <f t="shared" si="9"/>
-        <v>563.59970716779765</v>
-      </c>
-      <c r="E230" s="5">
-        <f t="shared" si="10"/>
-        <v>92.154377707465514</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>936.41200017929077</v>
-      </c>
-      <c r="B231">
-        <v>554</v>
-      </c>
-      <c r="C231">
-        <v>500</v>
-      </c>
-      <c r="D231" s="5">
-        <f t="shared" si="9"/>
-        <v>554.65295670295507</v>
-      </c>
-      <c r="E231" s="5">
-        <f t="shared" si="10"/>
-        <v>0.4263524559339506</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>941.4060001373291</v>
-      </c>
-      <c r="B232">
-        <v>560</v>
-      </c>
-      <c r="C232">
-        <v>500</v>
-      </c>
-      <c r="D232" s="5">
-        <f t="shared" si="9"/>
-        <v>554.65295670295507</v>
-      </c>
-      <c r="E232" s="5">
-        <f t="shared" si="10"/>
-        <v>28.590872020473157</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>946.41200017929077</v>
-      </c>
-      <c r="B233">
-        <v>563</v>
-      </c>
-      <c r="C233">
-        <v>500</v>
-      </c>
-      <c r="D233" s="5">
-        <f t="shared" si="9"/>
-        <v>560.6174570128502</v>
-      </c>
-      <c r="E233" s="5">
-        <f t="shared" si="10"/>
-        <v>5.6765110856167134</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>951.42200016975403</v>
-      </c>
-      <c r="B234">
-        <v>566</v>
-      </c>
-      <c r="C234">
-        <v>500</v>
-      </c>
-      <c r="D234" s="5">
-        <f t="shared" si="9"/>
-        <v>563.59970716779765</v>
-      </c>
-      <c r="E234" s="5">
-        <f t="shared" si="10"/>
-        <v>5.761405680321996</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>956.41000008583069</v>
-      </c>
-      <c r="B235">
-        <v>564</v>
-      </c>
-      <c r="C235">
-        <v>500</v>
-      </c>
-      <c r="D235" s="5">
-        <f t="shared" si="9"/>
-        <v>566.58195732274521</v>
-      </c>
-      <c r="E235" s="5">
-        <f t="shared" si="10"/>
-        <v>6.6665036164776179</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>961.41200017929077</v>
-      </c>
-      <c r="B236">
-        <v>557</v>
-      </c>
-      <c r="C236">
-        <v>500</v>
-      </c>
-      <c r="D236" s="5">
-        <f t="shared" si="9"/>
-        <v>564.59379055278021</v>
-      </c>
-      <c r="E236" s="5">
-        <f t="shared" si="10"/>
-        <v>57.665654959493907</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>966.41799998283386</v>
-      </c>
-      <c r="B237">
-        <v>562</v>
-      </c>
-      <c r="C237">
-        <v>500</v>
-      </c>
-      <c r="D237" s="5">
-        <f t="shared" si="9"/>
-        <v>557.63520685790263</v>
-      </c>
-      <c r="E237" s="5">
-        <f t="shared" si="10"/>
-        <v>19.051419173300225</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>971.41200017929077</v>
-      </c>
-      <c r="B238">
-        <v>564</v>
-      </c>
-      <c r="C238">
-        <v>500</v>
-      </c>
-      <c r="D238" s="5">
-        <f t="shared" ref="D238:D242" si="11">(B237*$G$44)+(C237*$G$45)</f>
-        <v>562.6056237828152</v>
-      </c>
-      <c r="E238" s="5">
-        <f t="shared" ref="E238:E242" si="12">(B238-D238)^2</f>
-        <v>1.9442850350505907</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>976.41200017929077</v>
-      </c>
-      <c r="B239">
-        <v>563</v>
-      </c>
-      <c r="C239">
-        <v>500</v>
-      </c>
-      <c r="D239" s="5">
-        <f t="shared" si="11"/>
-        <v>564.59379055278021</v>
-      </c>
-      <c r="E239" s="5">
-        <f t="shared" si="12"/>
-        <v>2.5401683261314343</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>981.40900015830994</v>
-      </c>
-      <c r="B240">
-        <v>561</v>
-      </c>
-      <c r="C240">
-        <v>500</v>
-      </c>
-      <c r="D240" s="5">
-        <f t="shared" si="11"/>
-        <v>563.59970716779765</v>
-      </c>
-      <c r="E240" s="5">
-        <f t="shared" si="12"/>
-        <v>6.7584773582984603</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>986.41600012779236</v>
-      </c>
-      <c r="B241">
-        <v>562</v>
-      </c>
-      <c r="C241">
-        <v>500</v>
-      </c>
-      <c r="D241" s="5">
-        <f t="shared" si="11"/>
-        <v>561.61154039783264</v>
-      </c>
-      <c r="E241" s="5">
-        <f t="shared" si="12"/>
-        <v>0.15090086251602264</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>991.41000008583069</v>
-      </c>
-      <c r="B242">
-        <v>567</v>
-      </c>
-      <c r="C242">
-        <v>500</v>
-      </c>
-      <c r="D242" s="5">
-        <f t="shared" si="11"/>
-        <v>562.6056237828152</v>
-      </c>
-      <c r="E242" s="5">
-        <f t="shared" si="12"/>
-        <v>19.310542338159387</v>
-      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logged Data/Data Log 06.10.15.xlsx
+++ b/Logged Data/Data Log 06.10.15.xlsx
@@ -358,6 +358,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,9 +368,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1753,8 +1753,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85282816"/>
-        <c:axId val="85284736"/>
+        <c:axId val="69965312"/>
+        <c:axId val="69980544"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3065,11 +3065,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85300736"/>
-        <c:axId val="85299200"/>
+        <c:axId val="69988352"/>
+        <c:axId val="69982464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85282816"/>
+        <c:axId val="69965312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,12 +3159,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85284736"/>
+        <c:crossAx val="69980544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85284736"/>
+        <c:axId val="69980544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,12 +3254,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85282816"/>
+        <c:crossAx val="69965312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85299200"/>
+        <c:axId val="69982464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="560"/>
@@ -3301,12 +3301,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85300736"/>
+        <c:crossAx val="69988352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85300736"/>
+        <c:axId val="69988352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +3314,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="85299200"/>
+        <c:crossAx val="69982464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3361,6 +3361,1189 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11940507436570429"/>
+          <c:y val="3.2882035578885964E-2"/>
+          <c:w val="0.67381014873140854"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12204969002530598"/>
+                  <c:y val="-9.1819772528433947E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Log2'!$A$37:$A$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="177"/>
+                <c:pt idx="0">
+                  <c:v>166.39000010490417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.41300010681152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.40499997138977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.41300010681152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.42000007629395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191.42799997329712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.43600010871887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.44300007820129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206.45099997520447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211.45800018310547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216.46600008010864</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>221.47399997711182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226.48100018501282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>231.48900008201599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>236.49600005149841</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>241.50400018692017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>246.51200008392334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>251.51900005340576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256.51400017738342</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>261.51699995994568</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>266.6010000705719</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>271.58700013160706</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>276.59400010108948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>281.60199999809265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>286.61500000953674</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>291.62400007247925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>296.63300013542175</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>301.64300012588501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>306.65100002288818</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>311.65799999237061</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>316.66600012779236</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>321.79900002479553</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>326.69700002670288</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>331.70500016212463</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>336.71200013160706</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>341.72000002861023</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>346.72699999809265</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>351.7350001335144</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>356.74300003051758</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>361.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>366.75800013542175</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>371.7810001373291</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>376.77400016784668</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>381.76900005340576</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>386.77999997138977</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>391.81599998474121</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>396.80100011825562</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>401.81100010871887</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>406.81800007820129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>411.82599997520447</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>416.83400011062622</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>421.84100008010864</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>426.85000014305115</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>431.86100006103516</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>436.86899995803833</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>441.87600016593933</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>446.8840000629425</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>451.89199995994568</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>456.89900016784668</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>461.90700006484985</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>466.91400003433228</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>471.93799996376038</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>476.9300000667572</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>481.93700003623962</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>486.94500017166138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>491.9520001411438</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>496.96000003814697</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>501.97399997711182</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>506.98200011253357</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>511.98900008201599</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>516.99699997901917</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>522.00400018692017</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>527.01200008392334</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>532.01999998092651</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>537.02699995040894</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>542.03500008583069</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>547.04900002479553</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>552.05700016021729</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>557.14199995994568</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>562.07200002670288</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>567.0789999961853</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>572.08700013160706</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>577.09400010108948</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>582.11800003051758</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>587.1100001335144</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>592.11700010299683</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>597.125</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>602.13199996948242</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>607.14000010490417</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>612.14800000190735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>617.1560001373291</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>622.16400003433228</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>627.17200016975403</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>632.17900013923645</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>637.18700003623962</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>642.19400000572205</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>647.2039999961853</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>652.20000004768372</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>657.21300005912781</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>662.20500016212463</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>667.20600008964539</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>672.22699999809265</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>677.23600006103516</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>682.24399995803833</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>687.25200009346008</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>692.2590000629425</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>697.26699995994568</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>702.27400016784668</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>707.28500008583069</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>712.29299998283386</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>717.29999995231628</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>722.30800008773804</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>727.31500005722046</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>732.33000016212463</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>737.33700013160706</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>742.34400010108948</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>747.35199999809265</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>752.3600001335144</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>757.36700010299683</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>762.375</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>767.38600015640259</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>772.39400005340576</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>777.40199995040894</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>782.40900015830994</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>787.41700005531311</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>792.42400002479553</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>797.43400001525879</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>802.45700001716614</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>807.44900012016296</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>812.45700001716614</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>817.59800004959106</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>822.62600016593933</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>827.6800000667572</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>832.65900015830994</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>837.66000008583069</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>842.65799999237061</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>847.7350001335144</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>852.66600012779236</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>857.66600012779236</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>862.6710000038147</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>867.68700003623962</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>872.67900013923645</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>877.67499995231628</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>882.69700002670288</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>887.69600009918213</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>892.70300006866455</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>897.74399995803833</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>902.73699998855591</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>907.74399995803833</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>912.78999996185303</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>917.83599996566772</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>922.98800015449524</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>927.91700005531311</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>932.87000012397766</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>937.88000011444092</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>942.86800003051758</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>947.87100005149841</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>952.87800002098083</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>957.89000010490417</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>962.90400004386902</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>967.89800000190735</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>972.90700006484985</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>977.91499996185303</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>982.91200017929077</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>987.91799998283386</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>992.92000007629395</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>997.92900013923645</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1002.9420001506805</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1008.3600001335144</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1012.9470000267029</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1017.9550001621246</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1022.9630000591278</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1027.9700000286102</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1032.9800000190735</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1037.9910001754761</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1043.0020000934601</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1048.0110001564026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Log2'!$B$37:$B$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="177"/>
+                <c:pt idx="0">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Log2'!$A$215:$A$234</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Log2'!$B$215:$B$234</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="41165184"/>
+        <c:axId val="41044608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41165184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41044608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41044608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41165184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -3395,7 +4578,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4657,9 +5839,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="68672512"/>
-        <c:axId val="70259840"/>
+        <c:axId val="71330048"/>
+        <c:axId val="71340416"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5904,12 +7085,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="70284032"/>
-        <c:axId val="70261760"/>
+        <c:axId val="71364608"/>
+        <c:axId val="71342336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68672512"/>
+        <c:axId val="71330048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -5955,7 +7135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6000,12 +7179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70259840"/>
+        <c:crossAx val="71340416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70259840"/>
+        <c:axId val="71340416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -6051,7 +7230,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6096,12 +7274,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68672512"/>
+        <c:crossAx val="71330048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70261760"/>
+        <c:axId val="71342336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -6143,12 +7321,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70284032"/>
+        <c:crossAx val="71364608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70284032"/>
+        <c:axId val="71364608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6156,7 +7334,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="70261760"/>
+        <c:crossAx val="71342336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6198,13 +7376,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -6242,7 +7420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8554,9 +9731,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="71404544"/>
-        <c:axId val="71419008"/>
+        <c:axId val="71674112"/>
+        <c:axId val="71680384"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10851,12 +12027,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="71430912"/>
-        <c:axId val="71420928"/>
+        <c:axId val="71692288"/>
+        <c:axId val="71682304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71404544"/>
+        <c:axId val="71674112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -10902,7 +12077,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -10947,12 +12121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71419008"/>
+        <c:crossAx val="71680384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71419008"/>
+        <c:axId val="71680384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -10999,7 +12173,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -11044,12 +12217,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71404544"/>
+        <c:crossAx val="71674112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71420928"/>
+        <c:axId val="71682304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -11091,12 +12264,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71430912"/>
+        <c:crossAx val="71692288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71430912"/>
+        <c:axId val="71692288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11104,7 +12277,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="71420928"/>
+        <c:crossAx val="71682304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11146,13 +12319,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -11187,7 +12360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -13469,9 +14641,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="72002560"/>
-        <c:axId val="72012928"/>
+        <c:axId val="77150464"/>
+        <c:axId val="77152640"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -15736,12 +16907,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="72028928"/>
-        <c:axId val="72014848"/>
+        <c:axId val="77172736"/>
+        <c:axId val="77154560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72002560"/>
+        <c:axId val="77150464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -15787,7 +16957,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -15832,12 +17001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72012928"/>
+        <c:crossAx val="77152640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72012928"/>
+        <c:axId val="77152640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -15884,7 +17053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -15929,12 +17097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72002560"/>
+        <c:crossAx val="77150464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72014848"/>
+        <c:axId val="77154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -15976,12 +17144,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72028928"/>
+        <c:crossAx val="77172736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72028928"/>
+        <c:axId val="77172736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15989,7 +17157,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="72014848"/>
+        <c:crossAx val="77154560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16031,13 +17199,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -16287,12 +17455,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="72111616"/>
-        <c:axId val="72113152"/>
+        <c:axId val="71763072"/>
+        <c:axId val="71764224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72111616"/>
+        <c:axId val="71763072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16347,12 +17514,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72113152"/>
+        <c:crossAx val="71764224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72113152"/>
+        <c:axId val="71764224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16407,7 +17574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72111616"/>
+        <c:crossAx val="71763072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16449,13 +17616,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -16784,12 +17951,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="72154496"/>
-        <c:axId val="72316032"/>
+        <c:axId val="71813760"/>
+        <c:axId val="77332864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72154496"/>
+        <c:axId val="71813760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16844,12 +18010,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72316032"/>
+        <c:crossAx val="77332864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72316032"/>
+        <c:axId val="77332864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16904,7 +18070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72154496"/>
+        <c:crossAx val="71813760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16946,13 +18112,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
   <c:chart>
@@ -17221,12 +18387,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="72337280"/>
-        <c:axId val="72338816"/>
+        <c:axId val="77354112"/>
+        <c:axId val="77355648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72337280"/>
+        <c:axId val="77354112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17281,12 +18446,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72338816"/>
+        <c:crossAx val="77355648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72338816"/>
+        <c:axId val="77355648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17341,7 +18506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72337280"/>
+        <c:crossAx val="77354112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17383,7 +18548,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20768,6 +21933,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -20800,7 +22000,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20837,7 +22037,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20874,7 +22074,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21613,17 +22813,17 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -21663,13 +22863,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -21711,13 +22911,13 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -22155,10 +23355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22841,23 +24041,23 @@
         <v>450</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46:H53" si="0">B45</f>
+        <f t="shared" ref="H46" si="0">B45</f>
         <v>172</v>
       </c>
       <c r="I46">
-        <f t="shared" ref="I46:I53" si="1">D45</f>
+        <f t="shared" ref="I46" si="1">D45</f>
         <v>450</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" ref="L46:L53" si="2">(H46*$J$45)+(I46*$K$45)</f>
+        <f t="shared" ref="L46" si="2">(H46*$J$45)+(I46*$K$45)</f>
         <v>206.0888888888889</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:M53" si="3">B46</f>
+        <f t="shared" ref="M46" si="3">B46</f>
         <v>179</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" ref="N46:O53" si="4">L46-M46</f>
+        <f t="shared" ref="N46" si="4">L46-M46</f>
         <v>27.088888888888903</v>
       </c>
       <c r="O46" s="4"/>
@@ -22924,7 +24124,7 @@
       <c r="K49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L49" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -25395,8 +26595,69 @@
         <v>450</v>
       </c>
     </row>
+    <row r="215" spans="1:4">
+      <c r="B215" s="4"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="B216" s="4"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="B218" s="4"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="B219" s="4"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="B220" s="4"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="B221" s="4"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="B223" s="4"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="B224" s="4"/>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="4"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="4"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="4"/>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="4"/>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="4"/>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
